--- a/Output/Dataframes/phenotypes.xlsx
+++ b/Output/Dataframes/phenotypes.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>known_call</t>
+          <t>genotype</t>
         </is>
       </c>
     </row>

--- a/Output/Dataframes/phenotypes.xlsx
+++ b/Output/Dataframes/phenotypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="143">
   <si>
     <t>sample_id</t>
   </si>
@@ -28,67 +28,67 @@
     <t>genotype</t>
   </si>
   <si>
-    <t>D402000237</t>
-  </si>
-  <si>
-    <t>D402000243</t>
-  </si>
-  <si>
-    <t>D402000266</t>
-  </si>
-  <si>
-    <t>D402000349</t>
-  </si>
-  <si>
-    <t>D402007223</t>
-  </si>
-  <si>
-    <t>D402007226</t>
-  </si>
-  <si>
-    <t>D402007227</t>
-  </si>
-  <si>
-    <t>D402007229</t>
-  </si>
-  <si>
-    <t>D402007230</t>
-  </si>
-  <si>
-    <t>D402007231</t>
-  </si>
-  <si>
-    <t>D402007232</t>
-  </si>
-  <si>
-    <t>D402007233</t>
-  </si>
-  <si>
-    <t>D402007239</t>
-  </si>
-  <si>
-    <t>D402007240</t>
-  </si>
-  <si>
-    <t>D402007242</t>
-  </si>
-  <si>
-    <t>D402007244</t>
-  </si>
-  <si>
-    <t>D402007251</t>
-  </si>
-  <si>
-    <t>D402007252</t>
-  </si>
-  <si>
-    <t>D402007254</t>
-  </si>
-  <si>
-    <t>D402007258</t>
-  </si>
-  <si>
-    <t>D402007262</t>
+    <t>D402000259</t>
+  </si>
+  <si>
+    <t>D402000265</t>
+  </si>
+  <si>
+    <t>D402007216</t>
+  </si>
+  <si>
+    <t>D402007217</t>
+  </si>
+  <si>
+    <t>D402007228</t>
+  </si>
+  <si>
+    <t>D402007237</t>
+  </si>
+  <si>
+    <t>D402007245</t>
+  </si>
+  <si>
+    <t>D402007247</t>
+  </si>
+  <si>
+    <t>D402007248</t>
+  </si>
+  <si>
+    <t>D402007259</t>
+  </si>
+  <si>
+    <t>D402007279</t>
+  </si>
+  <si>
+    <t>D402007284</t>
+  </si>
+  <si>
+    <t>D402007285</t>
+  </si>
+  <si>
+    <t>D402007290</t>
+  </si>
+  <si>
+    <t>D402007293</t>
+  </si>
+  <si>
+    <t>D402007304</t>
+  </si>
+  <si>
+    <t>D402007305</t>
+  </si>
+  <si>
+    <t>D402007310</t>
+  </si>
+  <si>
+    <t>D402007314</t>
+  </si>
+  <si>
+    <t>D402007363</t>
+  </si>
+  <si>
+    <t>D402007364</t>
   </si>
   <si>
     <t>CACNA1S</t>
@@ -169,61 +169,70 @@
     <t>NM</t>
   </si>
   <si>
+    <t>IM</t>
+  </si>
+  <si>
     <t>NM_or_IM</t>
   </si>
   <si>
+    <t>NM,IM,IM</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>UnfavorableResponseGenotype</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>FavorableResponseGenotype</t>
+  </si>
+  <si>
+    <t>IA,SA</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>IM</t>
-  </si>
-  <si>
     <t>IM,NM_or_IM</t>
   </si>
   <si>
-    <t>UnfavorableResponseGenotype</t>
-  </si>
-  <si>
-    <t>IA,IA_or_SA</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>RA</t>
-  </si>
-  <si>
-    <t>RM</t>
-  </si>
-  <si>
-    <t>IA,SA</t>
-  </si>
-  <si>
-    <t>NM,IM,PM</t>
-  </si>
-  <si>
-    <t>Not_PM</t>
-  </si>
-  <si>
-    <t>IM,UM</t>
-  </si>
-  <si>
-    <t>IM,PM</t>
-  </si>
-  <si>
-    <t>FavorableResponseGenotype</t>
-  </si>
-  <si>
-    <t>UM</t>
-  </si>
-  <si>
-    <t>IM,RM</t>
+    <t>Indeterminate,Indeterminate,Indeterminate,Indeterminate,Indeterminate,Indeterminate,Indeterminate,Indeterminate,Indeterminate,Deficient,Deficient,Deficient,Deficient,Deficient,Deficient</t>
+  </si>
+  <si>
+    <t>Indeterminate,MHS,MHS</t>
+  </si>
+  <si>
+    <t>IM,unknown</t>
+  </si>
+  <si>
+    <t>IM,IM,NM_or_IM,NM_or_IM</t>
+  </si>
+  <si>
+    <t>MHS</t>
+  </si>
+  <si>
+    <t>Indeterminate,Indeterminate,Deficient</t>
+  </si>
+  <si>
+    <t>Indeterminate,MHS,MHS,MHS,MHS,MHS</t>
+  </si>
+  <si>
+    <t>NM,NM_or_IM</t>
   </si>
   <si>
     <t>WT/WT</t>
@@ -235,208 +244,205 @@
     <t>*1/*1</t>
   </si>
   <si>
+    <t>*1/*6</t>
+  </si>
+  <si>
+    <t>*1A/*3</t>
+  </si>
+  <si>
+    <t>*1/*2</t>
+  </si>
+  <si>
+    <t>*1/*1,*1/*27,*27/*27</t>
+  </si>
+  <si>
+    <t>*1B/*1B</t>
+  </si>
+  <si>
+    <t>*3/*3</t>
+  </si>
+  <si>
+    <t>c.=/c.=</t>
+  </si>
+  <si>
+    <t>B/Null</t>
+  </si>
+  <si>
+    <t>*B/*C</t>
+  </si>
+  <si>
+    <t>rs12979860T/rs12979860T</t>
+  </si>
+  <si>
+    <t>Null/m.=</t>
+  </si>
+  <si>
+    <t>*4/*4</t>
+  </si>
+  <si>
+    <t>*5/*5</t>
+  </si>
+  <si>
+    <t>*1A/*1F</t>
+  </si>
+  <si>
+    <t>*1/*4</t>
+  </si>
+  <si>
     <t>*1A/*1C</t>
   </si>
   <si>
+    <t>*1/*4B</t>
+  </si>
+  <si>
     <t>*2/*4</t>
   </si>
   <si>
-    <t>*1B/*1B</t>
+    <t>*1B/*5A+7A+1B</t>
+  </si>
+  <si>
+    <t>*1/*3</t>
+  </si>
+  <si>
+    <t>B/Serres</t>
+  </si>
+  <si>
+    <t>*A/*A</t>
+  </si>
+  <si>
+    <t>rs12979860C/rs12979860T</t>
+  </si>
+  <si>
+    <t>*1/*28+60+80+93</t>
+  </si>
+  <si>
+    <t>F508delCTT/WT</t>
+  </si>
+  <si>
+    <t>*1A/*1A</t>
+  </si>
+  <si>
+    <t>*1/*10</t>
+  </si>
+  <si>
+    <t>B/B</t>
+  </si>
+  <si>
+    <t>*4/*5</t>
+  </si>
+  <si>
+    <t>*60/*60</t>
+  </si>
+  <si>
+    <t>*A/*B</t>
+  </si>
+  <si>
+    <t>*28+60+80+93/*28+60+80+93</t>
+  </si>
+  <si>
+    <t>*2/*2</t>
+  </si>
+  <si>
+    <t>*4/*6</t>
+  </si>
+  <si>
+    <t>*1A/*7A+1B,*1B/*7A</t>
+  </si>
+  <si>
+    <t>rs12979860C/rs12979860C</t>
+  </si>
+  <si>
+    <t>*28+60+80+93/*60</t>
+  </si>
+  <si>
+    <t>*1/*22</t>
+  </si>
+  <si>
+    <t>c.1129-5923C&gt;G/c.=</t>
+  </si>
+  <si>
+    <t>*4/*5E,*5/*6</t>
+  </si>
+  <si>
+    <t>*1/*60</t>
   </si>
   <si>
     <t>*1/*2+3,*2/*3</t>
   </si>
   <si>
-    <t>c.=/c.=</t>
-  </si>
-  <si>
-    <t>B/B</t>
+    <t>B/B,Val77Leu/B,B/Roubaix,B/Serres,B/Nashville,Val77Leu/Val77Leu,Val77Leu/Roubaix,Val77Leu/Serres,Val77Leu/Nashville,Roubaix/Roubaix,Roubaix/Serres,Nashville/Roubaix,Serres/Serres,Nashville/Serres,Nashville/Nashville</t>
+  </si>
+  <si>
+    <t>WT/WT,c.6487C&gt;T/WT,c.6487C&gt;T/c.6487C&gt;T</t>
+  </si>
+  <si>
+    <t>*1/*28+60+80,*28/*60+80</t>
+  </si>
+  <si>
+    <t>*6/*6</t>
+  </si>
+  <si>
+    <t>*1/*9</t>
+  </si>
+  <si>
+    <t>*4B/*4B</t>
+  </si>
+  <si>
+    <t>*4/*35</t>
+  </si>
+  <si>
+    <t>*1H/*9</t>
+  </si>
+  <si>
+    <t>*2/*33</t>
+  </si>
+  <si>
+    <t>*2+3/*3</t>
+  </si>
+  <si>
+    <t>*B/*B</t>
+  </si>
+  <si>
+    <t>*1/*5</t>
   </si>
   <si>
     <t>*A/*C</t>
   </si>
   <si>
-    <t>rs12979860C/rs12979860T</t>
-  </si>
-  <si>
-    <t>Null/m.=</t>
-  </si>
-  <si>
-    <t>*4/*11B,*11C/*30</t>
-  </si>
-  <si>
-    <t>*5/*5</t>
-  </si>
-  <si>
-    <t>*1/*28+60+80+93</t>
-  </si>
-  <si>
-    <t>*1/*2</t>
+    <t>*1/*3,*1/*2+3,*2/*3,*2/*2+3</t>
   </si>
   <si>
     <t>*1A/*4+1C</t>
   </si>
   <si>
-    <t>*1/*4</t>
-  </si>
-  <si>
-    <t>*3/*3</t>
-  </si>
-  <si>
-    <t>B/Null</t>
-  </si>
-  <si>
-    <t>*A/*A</t>
-  </si>
-  <si>
-    <t>*4/*14</t>
-  </si>
-  <si>
-    <t>*4/*4</t>
-  </si>
-  <si>
-    <t>*1/*1,*1/*14,*14/*14</t>
-  </si>
-  <si>
-    <t>*1A/*1B</t>
-  </si>
-  <si>
-    <t>*1A/*4+7A+1B,*1B/*4+7A,*4/*7A+1B</t>
-  </si>
-  <si>
-    <t>*4/*5E,*5/*6</t>
-  </si>
-  <si>
-    <t>*1A/*1F</t>
-  </si>
-  <si>
-    <t>*5/*22</t>
-  </si>
-  <si>
-    <t>*4/*5</t>
-  </si>
-  <si>
-    <t>*1/*1,*1/*2,*2/*2</t>
-  </si>
-  <si>
-    <t>*1/*17</t>
-  </si>
-  <si>
-    <t>*A/*B</t>
-  </si>
-  <si>
-    <t>rs12979860T/rs12979860T</t>
-  </si>
-  <si>
-    <t>*28+60+80/*60</t>
-  </si>
-  <si>
-    <t>*1/*1xN</t>
-  </si>
-  <si>
-    <t>*1/*3</t>
-  </si>
-  <si>
-    <t>*1/*28</t>
-  </si>
-  <si>
-    <t>*7B/*7C</t>
-  </si>
-  <si>
-    <t>*28+60+80+93/*60</t>
-  </si>
-  <si>
-    <t>*1/*36,*4/*22</t>
-  </si>
-  <si>
-    <t>*1A/*1A</t>
-  </si>
-  <si>
-    <t>*6/*6</t>
-  </si>
-  <si>
-    <t>*1/*5</t>
-  </si>
-  <si>
-    <t>*1/*1H</t>
-  </si>
-  <si>
-    <t>*1/*35</t>
-  </si>
-  <si>
-    <t>*1/*3A,*3B/*3C</t>
-  </si>
-  <si>
-    <t>*28+60+80/*28+60+80+93</t>
-  </si>
-  <si>
-    <t>*4/*15</t>
-  </si>
-  <si>
-    <t>*1B/*5A+7A+1B</t>
-  </si>
-  <si>
-    <t>*B/*B</t>
+    <t>c.1840C&gt;T/WT</t>
+  </si>
+  <si>
+    <t>*2/*4B</t>
+  </si>
+  <si>
+    <t>*3/*22</t>
+  </si>
+  <si>
+    <t>*1/*14</t>
+  </si>
+  <si>
+    <t>*3/*3,*2+3/*3,*2+3/*2+3</t>
+  </si>
+  <si>
+    <t>*1B/*7B</t>
+  </si>
+  <si>
+    <t>B/B,B/Nashville,Nashville/Nashville</t>
+  </si>
+  <si>
+    <t>WT/WT,c.6487C&gt;T/WT,c.14545G&gt;A/WT,c.6487C&gt;T/c.6487C&gt;T,c.6487C&gt;T/c.14545G&gt;A,c.14545G&gt;A/c.14545G&gt;A</t>
+  </si>
+  <si>
+    <t>*1A/*1F,*1F/*8</t>
   </si>
   <si>
     <t>*2/*35</t>
-  </si>
-  <si>
-    <t>c.1129-5923C&gt;G/c.=</t>
-  </si>
-  <si>
-    <t>*2/*5</t>
-  </si>
-  <si>
-    <t>*1A/*3</t>
-  </si>
-  <si>
-    <t>*9/*35</t>
-  </si>
-  <si>
-    <t>rs12979860C/rs12979860C</t>
-  </si>
-  <si>
-    <t>*4/*6</t>
-  </si>
-  <si>
-    <t>*2+3/*3</t>
-  </si>
-  <si>
-    <t>*1/*60</t>
-  </si>
-  <si>
-    <t>*1B/*5+1B</t>
-  </si>
-  <si>
-    <t>*1/*9</t>
-  </si>
-  <si>
-    <t>*B/*C</t>
-  </si>
-  <si>
-    <t>*17/*17</t>
-  </si>
-  <si>
-    <t>*4/*17</t>
-  </si>
-  <si>
-    <t>c.7025A&gt;G/WT</t>
-  </si>
-  <si>
-    <t>c.1905+1G&gt;A/c.=</t>
-  </si>
-  <si>
-    <t>*1B/*2</t>
-  </si>
-  <si>
-    <t>*1H/*9</t>
-  </si>
-  <si>
-    <t>*1/*7,*4/*5</t>
-  </si>
-  <si>
-    <t>*1B/*4+1C</t>
   </si>
 </sst>
 </file>
@@ -828,7 +834,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -845,7 +851,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -862,7 +868,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -879,7 +885,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -893,10 +899,10 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -910,10 +916,10 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -927,10 +933,10 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -944,7 +950,10 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -958,10 +967,10 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -978,7 +987,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -995,7 +1004,7 @@
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1009,10 +1018,10 @@
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1026,10 +1035,10 @@
         <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1046,7 +1055,7 @@
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1063,7 +1072,7 @@
         <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1080,7 +1089,7 @@
         <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1097,7 +1106,7 @@
         <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1114,7 +1123,7 @@
         <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1131,7 +1140,7 @@
         <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1148,7 +1157,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1165,7 +1174,7 @@
         <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1182,7 +1191,7 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1196,10 +1205,10 @@
         <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1216,7 +1225,7 @@
         <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1233,7 +1242,7 @@
         <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1250,7 +1259,7 @@
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1267,7 +1276,7 @@
         <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1281,10 +1290,10 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1298,10 +1307,10 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1318,7 +1327,7 @@
         <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1332,7 +1341,10 @@
         <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1346,10 +1358,10 @@
         <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1363,10 +1375,10 @@
         <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1383,7 +1395,7 @@
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1397,10 +1409,10 @@
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1414,10 +1426,10 @@
         <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1434,7 +1446,7 @@
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1451,7 +1463,7 @@
         <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1468,7 +1480,7 @@
         <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1485,7 +1497,7 @@
         <v>55</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1502,7 +1514,7 @@
         <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1516,10 +1528,10 @@
         <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1533,10 +1545,10 @@
         <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E44" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1553,7 +1565,7 @@
         <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1570,7 +1582,7 @@
         <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1584,10 +1596,10 @@
         <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1604,7 +1616,7 @@
         <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1618,10 +1630,10 @@
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1638,7 +1650,7 @@
         <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1655,7 +1667,7 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1669,10 +1681,10 @@
         <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1689,7 +1701,7 @@
         <v>50</v>
       </c>
       <c r="E53" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1706,7 +1718,7 @@
         <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1723,7 +1735,7 @@
         <v>50</v>
       </c>
       <c r="E55" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1737,10 +1749,10 @@
         <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1757,7 +1769,7 @@
         <v>50</v>
       </c>
       <c r="E57" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1774,7 +1786,7 @@
         <v>50</v>
       </c>
       <c r="E58" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1788,10 +1800,10 @@
         <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E59" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1808,7 +1820,7 @@
         <v>50</v>
       </c>
       <c r="E60" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1825,7 +1837,7 @@
         <v>50</v>
       </c>
       <c r="E61" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1842,7 +1854,7 @@
         <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1859,7 +1871,7 @@
         <v>50</v>
       </c>
       <c r="E63" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1876,7 +1888,7 @@
         <v>55</v>
       </c>
       <c r="E64" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1893,7 +1905,7 @@
         <v>49</v>
       </c>
       <c r="E65" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1907,10 +1919,10 @@
         <v>43</v>
       </c>
       <c r="D66" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E66" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1924,10 +1936,10 @@
         <v>44</v>
       </c>
       <c r="D67" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E67" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1944,7 +1956,7 @@
         <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1961,7 +1973,7 @@
         <v>50</v>
       </c>
       <c r="E69" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1978,7 +1990,7 @@
         <v>50</v>
       </c>
       <c r="E70" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1995,7 +2007,7 @@
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2012,7 +2024,7 @@
         <v>49</v>
       </c>
       <c r="E72" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2029,7 +2041,7 @@
         <v>50</v>
       </c>
       <c r="E73" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2046,7 +2058,7 @@
         <v>50</v>
       </c>
       <c r="E74" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2060,10 +2072,10 @@
         <v>29</v>
       </c>
       <c r="D75" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E75" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2077,10 +2089,10 @@
         <v>30</v>
       </c>
       <c r="D76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E76" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2097,7 +2109,7 @@
         <v>50</v>
       </c>
       <c r="E77" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2111,7 +2123,10 @@
         <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="E78" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2125,10 +2140,10 @@
         <v>33</v>
       </c>
       <c r="D79" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E79" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2145,7 +2160,7 @@
         <v>50</v>
       </c>
       <c r="E80" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2162,7 +2177,7 @@
         <v>50</v>
       </c>
       <c r="E81" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2176,10 +2191,10 @@
         <v>36</v>
       </c>
       <c r="D82" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E82" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2193,10 +2208,10 @@
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2213,7 +2228,7 @@
         <v>50</v>
       </c>
       <c r="E84" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2230,7 +2245,7 @@
         <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2244,10 +2259,10 @@
         <v>40</v>
       </c>
       <c r="D86" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E86" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2264,7 +2279,7 @@
         <v>55</v>
       </c>
       <c r="E87" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2281,7 +2296,7 @@
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2295,10 +2310,10 @@
         <v>43</v>
       </c>
       <c r="D89" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E89" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2312,10 +2327,10 @@
         <v>44</v>
       </c>
       <c r="D90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E90" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2332,7 +2347,7 @@
         <v>48</v>
       </c>
       <c r="E91" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2349,7 +2364,7 @@
         <v>50</v>
       </c>
       <c r="E92" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2363,10 +2378,10 @@
         <v>47</v>
       </c>
       <c r="D93" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E93" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2383,7 +2398,7 @@
         <v>48</v>
       </c>
       <c r="E94" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2400,7 +2415,7 @@
         <v>49</v>
       </c>
       <c r="E95" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2417,7 +2432,7 @@
         <v>50</v>
       </c>
       <c r="E96" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2431,10 +2446,10 @@
         <v>28</v>
       </c>
       <c r="D97" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E97" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2448,10 +2463,10 @@
         <v>29</v>
       </c>
       <c r="D98" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E98" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2468,7 +2483,7 @@
         <v>50</v>
       </c>
       <c r="E99" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2485,7 +2500,7 @@
         <v>50</v>
       </c>
       <c r="E100" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2499,10 +2514,10 @@
         <v>32</v>
       </c>
       <c r="D101" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E101" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2516,10 +2531,10 @@
         <v>33</v>
       </c>
       <c r="D102" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E102" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2536,7 +2551,7 @@
         <v>50</v>
       </c>
       <c r="E103" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2553,7 +2568,7 @@
         <v>50</v>
       </c>
       <c r="E104" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2567,10 +2582,10 @@
         <v>36</v>
       </c>
       <c r="D105" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E105" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2587,7 +2602,7 @@
         <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2604,7 +2619,7 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2621,7 +2636,7 @@
         <v>48</v>
       </c>
       <c r="E108" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2638,7 +2653,7 @@
         <v>51</v>
       </c>
       <c r="E109" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2655,7 +2670,7 @@
         <v>55</v>
       </c>
       <c r="E110" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2672,7 +2687,7 @@
         <v>49</v>
       </c>
       <c r="E111" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2686,10 +2701,10 @@
         <v>43</v>
       </c>
       <c r="D112" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E112" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2706,7 +2721,7 @@
         <v>60</v>
       </c>
       <c r="E113" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2723,7 +2738,7 @@
         <v>48</v>
       </c>
       <c r="E114" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2740,7 +2755,7 @@
         <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2754,10 +2769,10 @@
         <v>47</v>
       </c>
       <c r="D116" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2774,7 +2789,7 @@
         <v>48</v>
       </c>
       <c r="E117" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2791,7 +2806,7 @@
         <v>49</v>
       </c>
       <c r="E118" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2808,7 +2823,7 @@
         <v>50</v>
       </c>
       <c r="E119" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2822,10 +2837,10 @@
         <v>28</v>
       </c>
       <c r="D120" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E120" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2839,10 +2854,10 @@
         <v>29</v>
       </c>
       <c r="D121" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E121" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2859,7 +2874,7 @@
         <v>50</v>
       </c>
       <c r="E122" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2873,10 +2888,10 @@
         <v>31</v>
       </c>
       <c r="D123" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E123" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2893,7 +2908,7 @@
         <v>50</v>
       </c>
       <c r="E124" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2907,10 +2922,10 @@
         <v>33</v>
       </c>
       <c r="D125" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E125" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2924,10 +2939,10 @@
         <v>34</v>
       </c>
       <c r="D126" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E126" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2944,7 +2959,7 @@
         <v>50</v>
       </c>
       <c r="E127" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2958,10 +2973,10 @@
         <v>36</v>
       </c>
       <c r="D128" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E128" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2975,10 +2990,10 @@
         <v>37</v>
       </c>
       <c r="D129" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E129" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2995,7 +3010,7 @@
         <v>50</v>
       </c>
       <c r="E130" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3012,7 +3027,7 @@
         <v>48</v>
       </c>
       <c r="E131" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3026,10 +3041,10 @@
         <v>40</v>
       </c>
       <c r="D132" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E132" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3043,10 +3058,10 @@
         <v>41</v>
       </c>
       <c r="D133" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E133" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3063,7 +3078,7 @@
         <v>49</v>
       </c>
       <c r="E134" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3077,10 +3092,10 @@
         <v>43</v>
       </c>
       <c r="D135" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E135" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3094,10 +3109,10 @@
         <v>44</v>
       </c>
       <c r="D136" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E136" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3114,7 +3129,7 @@
         <v>48</v>
       </c>
       <c r="E137" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3131,7 +3146,7 @@
         <v>50</v>
       </c>
       <c r="E138" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3145,10 +3160,10 @@
         <v>47</v>
       </c>
       <c r="D139" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E139" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3165,7 +3180,7 @@
         <v>48</v>
       </c>
       <c r="E140" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3182,7 +3197,7 @@
         <v>49</v>
       </c>
       <c r="E141" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3199,7 +3214,7 @@
         <v>50</v>
       </c>
       <c r="E142" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3213,7 +3228,10 @@
         <v>28</v>
       </c>
       <c r="D143" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="E143" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3227,10 +3245,10 @@
         <v>29</v>
       </c>
       <c r="D144" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E144" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3247,7 +3265,7 @@
         <v>50</v>
       </c>
       <c r="E145" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3264,7 +3282,7 @@
         <v>50</v>
       </c>
       <c r="E146" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3278,7 +3296,10 @@
         <v>32</v>
       </c>
       <c r="D147" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="E147" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3292,10 +3313,10 @@
         <v>33</v>
       </c>
       <c r="D148" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E148" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3312,7 +3333,7 @@
         <v>50</v>
       </c>
       <c r="E149" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3326,10 +3347,10 @@
         <v>35</v>
       </c>
       <c r="D150" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E150" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3343,10 +3364,10 @@
         <v>36</v>
       </c>
       <c r="D151" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E151" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3363,7 +3384,7 @@
         <v>50</v>
       </c>
       <c r="E152" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3377,10 +3398,10 @@
         <v>38</v>
       </c>
       <c r="D153" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E153" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3397,7 +3418,7 @@
         <v>48</v>
       </c>
       <c r="E154" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3411,10 +3432,10 @@
         <v>40</v>
       </c>
       <c r="D155" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E155" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3431,7 +3452,7 @@
         <v>55</v>
       </c>
       <c r="E156" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3448,7 +3469,7 @@
         <v>49</v>
       </c>
       <c r="E157" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3462,10 +3483,10 @@
         <v>43</v>
       </c>
       <c r="D158" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E158" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3479,10 +3500,10 @@
         <v>44</v>
       </c>
       <c r="D159" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E159" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3499,7 +3520,7 @@
         <v>48</v>
       </c>
       <c r="E160" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3516,7 +3537,7 @@
         <v>50</v>
       </c>
       <c r="E161" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3533,7 +3554,7 @@
         <v>50</v>
       </c>
       <c r="E162" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3550,7 +3571,7 @@
         <v>48</v>
       </c>
       <c r="E163" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3567,7 +3588,7 @@
         <v>49</v>
       </c>
       <c r="E164" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3584,7 +3605,7 @@
         <v>50</v>
       </c>
       <c r="E165" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3601,7 +3622,7 @@
         <v>50</v>
       </c>
       <c r="E166" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3615,10 +3636,10 @@
         <v>29</v>
       </c>
       <c r="D167" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E167" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3635,7 +3656,7 @@
         <v>50</v>
       </c>
       <c r="E168" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3649,10 +3670,7 @@
         <v>31</v>
       </c>
       <c r="D169" t="s">
-        <v>50</v>
-      </c>
-      <c r="E169" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3666,7 +3684,10 @@
         <v>32</v>
       </c>
       <c r="D170" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="E170" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3680,7 +3701,10 @@
         <v>33</v>
       </c>
       <c r="D171" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="E171" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3697,7 +3721,7 @@
         <v>50</v>
       </c>
       <c r="E172" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3714,7 +3738,7 @@
         <v>50</v>
       </c>
       <c r="E173" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3728,10 +3752,10 @@
         <v>36</v>
       </c>
       <c r="D174" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E174" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3745,10 +3769,10 @@
         <v>37</v>
       </c>
       <c r="D175" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E175" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3765,7 +3789,7 @@
         <v>50</v>
       </c>
       <c r="E176" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3779,10 +3803,10 @@
         <v>39</v>
       </c>
       <c r="D177" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E177" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3796,10 +3820,10 @@
         <v>40</v>
       </c>
       <c r="D178" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E178" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3816,7 +3840,7 @@
         <v>55</v>
       </c>
       <c r="E179" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3833,7 +3857,7 @@
         <v>49</v>
       </c>
       <c r="E180" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3847,10 +3871,10 @@
         <v>43</v>
       </c>
       <c r="D181" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E181" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3864,10 +3888,10 @@
         <v>44</v>
       </c>
       <c r="D182" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E182" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3881,10 +3905,10 @@
         <v>45</v>
       </c>
       <c r="D183" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E183" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3901,7 +3925,7 @@
         <v>50</v>
       </c>
       <c r="E184" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3915,10 +3939,10 @@
         <v>47</v>
       </c>
       <c r="D185" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E185" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3935,7 +3959,7 @@
         <v>48</v>
       </c>
       <c r="E186" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3952,7 +3976,7 @@
         <v>49</v>
       </c>
       <c r="E187" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3969,7 +3993,7 @@
         <v>50</v>
       </c>
       <c r="E188" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3983,10 +4007,10 @@
         <v>28</v>
       </c>
       <c r="D189" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E189" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4003,7 +4027,7 @@
         <v>50</v>
       </c>
       <c r="E190" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4020,7 +4044,7 @@
         <v>50</v>
       </c>
       <c r="E191" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4034,10 +4058,10 @@
         <v>31</v>
       </c>
       <c r="D192" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E192" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4051,7 +4075,10 @@
         <v>32</v>
       </c>
       <c r="D193" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="E193" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4068,7 +4095,7 @@
         <v>50</v>
       </c>
       <c r="E194" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4085,7 +4112,7 @@
         <v>50</v>
       </c>
       <c r="E195" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4099,10 +4126,10 @@
         <v>35</v>
       </c>
       <c r="D196" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E196" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4116,10 +4143,10 @@
         <v>36</v>
       </c>
       <c r="D197" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E197" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4133,10 +4160,10 @@
         <v>37</v>
       </c>
       <c r="D198" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E198" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4153,7 +4180,7 @@
         <v>50</v>
       </c>
       <c r="E199" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4170,7 +4197,7 @@
         <v>48</v>
       </c>
       <c r="E200" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4184,10 +4211,10 @@
         <v>40</v>
       </c>
       <c r="D201" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E201" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4201,10 +4228,10 @@
         <v>41</v>
       </c>
       <c r="D202" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E202" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4221,7 +4248,7 @@
         <v>49</v>
       </c>
       <c r="E203" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4235,10 +4262,10 @@
         <v>43</v>
       </c>
       <c r="D204" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E204" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4255,7 +4282,7 @@
         <v>57</v>
       </c>
       <c r="E205" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4272,7 +4299,7 @@
         <v>48</v>
       </c>
       <c r="E206" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4286,10 +4313,10 @@
         <v>46</v>
       </c>
       <c r="D207" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E207" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4303,10 +4330,10 @@
         <v>47</v>
       </c>
       <c r="D208" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E208" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4323,7 +4350,7 @@
         <v>48</v>
       </c>
       <c r="E209" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4340,7 +4367,7 @@
         <v>49</v>
       </c>
       <c r="E210" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4357,7 +4384,7 @@
         <v>50</v>
       </c>
       <c r="E211" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4371,10 +4398,10 @@
         <v>28</v>
       </c>
       <c r="D212" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E212" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4388,10 +4415,10 @@
         <v>29</v>
       </c>
       <c r="D213" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E213" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4408,7 +4435,7 @@
         <v>50</v>
       </c>
       <c r="E214" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4425,7 +4452,7 @@
         <v>50</v>
       </c>
       <c r="E215" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4439,7 +4466,10 @@
         <v>32</v>
       </c>
       <c r="D216" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="E216" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4453,10 +4483,10 @@
         <v>33</v>
       </c>
       <c r="D217" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E217" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4470,10 +4500,10 @@
         <v>34</v>
       </c>
       <c r="D218" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E218" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4490,7 +4520,7 @@
         <v>50</v>
       </c>
       <c r="E219" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4504,10 +4534,10 @@
         <v>36</v>
       </c>
       <c r="D220" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E220" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4521,10 +4551,10 @@
         <v>37</v>
       </c>
       <c r="D221" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E221" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4541,7 +4571,7 @@
         <v>50</v>
       </c>
       <c r="E222" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4558,7 +4588,7 @@
         <v>48</v>
       </c>
       <c r="E223" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4572,10 +4602,10 @@
         <v>40</v>
       </c>
       <c r="D224" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E224" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4589,10 +4619,10 @@
         <v>41</v>
       </c>
       <c r="D225" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E225" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4609,7 +4639,7 @@
         <v>49</v>
       </c>
       <c r="E226" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4623,10 +4653,10 @@
         <v>43</v>
       </c>
       <c r="D227" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E227" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4643,7 +4673,7 @@
         <v>57</v>
       </c>
       <c r="E228" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4660,7 +4690,7 @@
         <v>48</v>
       </c>
       <c r="E229" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4677,7 +4707,7 @@
         <v>50</v>
       </c>
       <c r="E230" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4691,10 +4721,10 @@
         <v>47</v>
       </c>
       <c r="D231" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E231" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4711,7 +4741,7 @@
         <v>48</v>
       </c>
       <c r="E232" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4728,7 +4758,7 @@
         <v>49</v>
       </c>
       <c r="E233" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4745,7 +4775,7 @@
         <v>50</v>
       </c>
       <c r="E234" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4759,10 +4789,10 @@
         <v>28</v>
       </c>
       <c r="D235" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E235" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4776,10 +4806,10 @@
         <v>29</v>
       </c>
       <c r="D236" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E236" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4796,7 +4826,7 @@
         <v>50</v>
       </c>
       <c r="E237" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4810,10 +4840,10 @@
         <v>31</v>
       </c>
       <c r="D238" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E238" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4827,10 +4857,10 @@
         <v>32</v>
       </c>
       <c r="D239" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E239" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4847,7 +4877,7 @@
         <v>50</v>
       </c>
       <c r="E240" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4864,7 +4894,7 @@
         <v>50</v>
       </c>
       <c r="E241" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4881,7 +4911,7 @@
         <v>50</v>
       </c>
       <c r="E242" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4895,10 +4925,10 @@
         <v>36</v>
       </c>
       <c r="D243" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E243" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4912,10 +4942,10 @@
         <v>37</v>
       </c>
       <c r="D244" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E244" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4929,10 +4959,10 @@
         <v>38</v>
       </c>
       <c r="D245" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E245" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4949,7 +4979,7 @@
         <v>48</v>
       </c>
       <c r="E246" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4963,10 +4993,10 @@
         <v>40</v>
       </c>
       <c r="D247" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E247" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4983,7 +5013,7 @@
         <v>55</v>
       </c>
       <c r="E248" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5000,7 +5030,7 @@
         <v>49</v>
       </c>
       <c r="E249" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5014,10 +5044,10 @@
         <v>43</v>
       </c>
       <c r="D250" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E250" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5031,10 +5061,10 @@
         <v>44</v>
       </c>
       <c r="D251" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E251" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5051,7 +5081,7 @@
         <v>48</v>
       </c>
       <c r="E252" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5065,10 +5095,10 @@
         <v>46</v>
       </c>
       <c r="D253" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E253" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5082,10 +5112,10 @@
         <v>47</v>
       </c>
       <c r="D254" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E254" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5102,7 +5132,7 @@
         <v>48</v>
       </c>
       <c r="E255" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5119,7 +5149,7 @@
         <v>49</v>
       </c>
       <c r="E256" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5136,7 +5166,7 @@
         <v>50</v>
       </c>
       <c r="E257" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5153,7 +5183,7 @@
         <v>50</v>
       </c>
       <c r="E258" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5167,10 +5197,10 @@
         <v>29</v>
       </c>
       <c r="D259" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E259" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5187,7 +5217,7 @@
         <v>50</v>
       </c>
       <c r="E260" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5201,10 +5231,10 @@
         <v>31</v>
       </c>
       <c r="D261" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E261" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5218,10 +5248,10 @@
         <v>32</v>
       </c>
       <c r="D262" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E262" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5238,7 +5268,7 @@
         <v>50</v>
       </c>
       <c r="E263" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5255,7 +5285,7 @@
         <v>50</v>
       </c>
       <c r="E264" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5272,7 +5302,7 @@
         <v>50</v>
       </c>
       <c r="E265" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5286,10 +5316,10 @@
         <v>36</v>
       </c>
       <c r="D266" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E266" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5306,7 +5336,7 @@
         <v>50</v>
       </c>
       <c r="E267" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5320,10 +5350,10 @@
         <v>38</v>
       </c>
       <c r="D268" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E268" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5340,7 +5370,7 @@
         <v>48</v>
       </c>
       <c r="E269" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5354,10 +5384,10 @@
         <v>40</v>
       </c>
       <c r="D270" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E270" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5374,7 +5404,7 @@
         <v>55</v>
       </c>
       <c r="E271" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5391,7 +5421,7 @@
         <v>49</v>
       </c>
       <c r="E272" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5405,10 +5435,10 @@
         <v>43</v>
       </c>
       <c r="D273" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E273" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5425,7 +5455,7 @@
         <v>57</v>
       </c>
       <c r="E274" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5442,7 +5472,7 @@
         <v>48</v>
       </c>
       <c r="E275" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5456,10 +5486,10 @@
         <v>46</v>
       </c>
       <c r="D276" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E276" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5473,10 +5503,10 @@
         <v>47</v>
       </c>
       <c r="D277" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E277" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5493,7 +5523,7 @@
         <v>48</v>
       </c>
       <c r="E278" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5510,7 +5540,7 @@
         <v>49</v>
       </c>
       <c r="E279" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5527,7 +5557,7 @@
         <v>50</v>
       </c>
       <c r="E280" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5544,7 +5574,7 @@
         <v>50</v>
       </c>
       <c r="E281" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5558,10 +5588,10 @@
         <v>29</v>
       </c>
       <c r="D282" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E282" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5575,10 +5605,10 @@
         <v>30</v>
       </c>
       <c r="D283" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E283" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5592,7 +5622,10 @@
         <v>31</v>
       </c>
       <c r="D284" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="E284" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5606,7 +5639,10 @@
         <v>32</v>
       </c>
       <c r="D285" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="E285" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5620,10 +5656,10 @@
         <v>33</v>
       </c>
       <c r="D286" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E286" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5640,7 +5676,7 @@
         <v>50</v>
       </c>
       <c r="E287" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5657,7 +5693,7 @@
         <v>50</v>
       </c>
       <c r="E288" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5671,10 +5707,10 @@
         <v>36</v>
       </c>
       <c r="D289" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E289" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5691,7 +5727,7 @@
         <v>50</v>
       </c>
       <c r="E290" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5708,7 +5744,7 @@
         <v>50</v>
       </c>
       <c r="E291" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5725,7 +5761,7 @@
         <v>48</v>
       </c>
       <c r="E292" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5739,10 +5775,10 @@
         <v>40</v>
       </c>
       <c r="D293" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E293" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5756,10 +5792,10 @@
         <v>41</v>
       </c>
       <c r="D294" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E294" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5776,7 +5812,7 @@
         <v>49</v>
       </c>
       <c r="E295" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5790,10 +5826,10 @@
         <v>43</v>
       </c>
       <c r="D296" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E296" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5807,10 +5843,10 @@
         <v>44</v>
       </c>
       <c r="D297" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E297" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5827,7 +5863,7 @@
         <v>48</v>
       </c>
       <c r="E298" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5844,7 +5880,7 @@
         <v>50</v>
       </c>
       <c r="E299" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5861,7 +5897,7 @@
         <v>50</v>
       </c>
       <c r="E300" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5878,7 +5914,7 @@
         <v>48</v>
       </c>
       <c r="E301" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5895,7 +5931,7 @@
         <v>49</v>
       </c>
       <c r="E302" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5912,7 +5948,7 @@
         <v>50</v>
       </c>
       <c r="E303" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5926,10 +5962,10 @@
         <v>28</v>
       </c>
       <c r="D304" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E304" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5946,7 +5982,7 @@
         <v>50</v>
       </c>
       <c r="E305" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5963,7 +5999,7 @@
         <v>50</v>
       </c>
       <c r="E306" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5980,7 +6016,7 @@
         <v>50</v>
       </c>
       <c r="E307" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5994,10 +6030,10 @@
         <v>32</v>
       </c>
       <c r="D308" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E308" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6011,10 +6047,10 @@
         <v>33</v>
       </c>
       <c r="D309" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E309" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6031,7 +6067,7 @@
         <v>50</v>
       </c>
       <c r="E310" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6048,7 +6084,7 @@
         <v>50</v>
       </c>
       <c r="E311" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6062,10 +6098,10 @@
         <v>36</v>
       </c>
       <c r="D312" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E312" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6079,10 +6115,10 @@
         <v>37</v>
       </c>
       <c r="D313" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E313" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6099,7 +6135,7 @@
         <v>50</v>
       </c>
       <c r="E314" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6116,7 +6152,7 @@
         <v>48</v>
       </c>
       <c r="E315" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6130,10 +6166,10 @@
         <v>40</v>
       </c>
       <c r="D316" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E316" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6147,10 +6183,10 @@
         <v>41</v>
       </c>
       <c r="D317" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E317" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6167,7 +6203,7 @@
         <v>49</v>
       </c>
       <c r="E318" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6181,10 +6217,10 @@
         <v>43</v>
       </c>
       <c r="D319" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E319" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6198,10 +6234,10 @@
         <v>44</v>
       </c>
       <c r="D320" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E320" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -6218,7 +6254,7 @@
         <v>48</v>
       </c>
       <c r="E321" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -6235,7 +6271,7 @@
         <v>50</v>
       </c>
       <c r="E322" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -6252,7 +6288,7 @@
         <v>50</v>
       </c>
       <c r="E323" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -6269,7 +6305,7 @@
         <v>48</v>
       </c>
       <c r="E324" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -6286,7 +6322,7 @@
         <v>49</v>
       </c>
       <c r="E325" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -6303,7 +6339,7 @@
         <v>50</v>
       </c>
       <c r="E326" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6317,7 +6353,10 @@
         <v>28</v>
       </c>
       <c r="D327" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="E327" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6331,7 +6370,10 @@
         <v>29</v>
       </c>
       <c r="D328" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="E328" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6345,10 +6387,10 @@
         <v>30</v>
       </c>
       <c r="D329" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E329" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6365,7 +6407,7 @@
         <v>50</v>
       </c>
       <c r="E330" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6379,10 +6421,10 @@
         <v>32</v>
       </c>
       <c r="D331" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E331" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6399,7 +6441,7 @@
         <v>50</v>
       </c>
       <c r="E332" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6413,10 +6455,10 @@
         <v>34</v>
       </c>
       <c r="D333" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E333" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6433,7 +6475,7 @@
         <v>50</v>
       </c>
       <c r="E334" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6447,10 +6489,10 @@
         <v>36</v>
       </c>
       <c r="D335" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E335" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6464,10 +6506,10 @@
         <v>37</v>
       </c>
       <c r="D336" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E336" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6481,10 +6523,7 @@
         <v>38</v>
       </c>
       <c r="D337" t="s">
-        <v>50</v>
-      </c>
-      <c r="E337" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6501,7 +6540,7 @@
         <v>48</v>
       </c>
       <c r="E338" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6515,10 +6554,10 @@
         <v>40</v>
       </c>
       <c r="D339" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E339" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6532,10 +6571,10 @@
         <v>41</v>
       </c>
       <c r="D340" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E340" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6552,7 +6591,7 @@
         <v>49</v>
       </c>
       <c r="E341" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6566,10 +6605,10 @@
         <v>43</v>
       </c>
       <c r="D342" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E342" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6586,7 +6625,7 @@
         <v>62</v>
       </c>
       <c r="E343" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6600,10 +6639,10 @@
         <v>45</v>
       </c>
       <c r="D344" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E344" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6620,7 +6659,7 @@
         <v>50</v>
       </c>
       <c r="E345" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6634,10 +6673,10 @@
         <v>47</v>
       </c>
       <c r="D346" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E346" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6654,7 +6693,7 @@
         <v>48</v>
       </c>
       <c r="E347" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6671,7 +6710,7 @@
         <v>49</v>
       </c>
       <c r="E348" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6688,7 +6727,7 @@
         <v>50</v>
       </c>
       <c r="E349" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6702,10 +6741,10 @@
         <v>28</v>
       </c>
       <c r="D350" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E350" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6719,10 +6758,10 @@
         <v>29</v>
       </c>
       <c r="D351" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E351" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6736,10 +6775,10 @@
         <v>30</v>
       </c>
       <c r="D352" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E352" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6756,7 +6795,7 @@
         <v>50</v>
       </c>
       <c r="E353" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6770,10 +6809,10 @@
         <v>32</v>
       </c>
       <c r="D354" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E354" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6790,7 +6829,7 @@
         <v>50</v>
       </c>
       <c r="E355" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6807,7 +6846,7 @@
         <v>50</v>
       </c>
       <c r="E356" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6821,10 +6860,10 @@
         <v>35</v>
       </c>
       <c r="D357" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E357" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6838,10 +6877,10 @@
         <v>36</v>
       </c>
       <c r="D358" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E358" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6855,10 +6894,10 @@
         <v>37</v>
       </c>
       <c r="D359" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E359" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6875,7 +6914,7 @@
         <v>50</v>
       </c>
       <c r="E360" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6892,7 +6931,7 @@
         <v>48</v>
       </c>
       <c r="E361" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6906,10 +6945,10 @@
         <v>40</v>
       </c>
       <c r="D362" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E362" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6923,10 +6962,10 @@
         <v>41</v>
       </c>
       <c r="D363" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E363" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6943,7 +6982,7 @@
         <v>49</v>
       </c>
       <c r="E364" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6957,10 +6996,10 @@
         <v>43</v>
       </c>
       <c r="D365" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E365" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6977,7 +7016,7 @@
         <v>57</v>
       </c>
       <c r="E366" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6994,7 +7033,7 @@
         <v>48</v>
       </c>
       <c r="E367" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7008,10 +7047,10 @@
         <v>46</v>
       </c>
       <c r="D368" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E368" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7025,10 +7064,10 @@
         <v>47</v>
       </c>
       <c r="D369" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E369" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -7045,7 +7084,7 @@
         <v>48</v>
       </c>
       <c r="E370" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7062,7 +7101,7 @@
         <v>49</v>
       </c>
       <c r="E371" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7079,7 +7118,7 @@
         <v>50</v>
       </c>
       <c r="E372" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -7096,7 +7135,7 @@
         <v>50</v>
       </c>
       <c r="E373" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7113,7 +7152,7 @@
         <v>50</v>
       </c>
       <c r="E374" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -7130,7 +7169,7 @@
         <v>50</v>
       </c>
       <c r="E375" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -7147,7 +7186,7 @@
         <v>50</v>
       </c>
       <c r="E376" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -7161,10 +7200,10 @@
         <v>32</v>
       </c>
       <c r="D377" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E377" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -7178,10 +7217,10 @@
         <v>33</v>
       </c>
       <c r="D378" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E378" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -7195,10 +7234,10 @@
         <v>34</v>
       </c>
       <c r="D379" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E379" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -7215,7 +7254,7 @@
         <v>50</v>
       </c>
       <c r="E380" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -7229,10 +7268,10 @@
         <v>36</v>
       </c>
       <c r="D381" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E381" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -7246,10 +7285,10 @@
         <v>37</v>
       </c>
       <c r="D382" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E382" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -7263,10 +7302,10 @@
         <v>38</v>
       </c>
       <c r="D383" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E383" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -7283,7 +7322,7 @@
         <v>48</v>
       </c>
       <c r="E384" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7297,10 +7336,10 @@
         <v>40</v>
       </c>
       <c r="D385" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E385" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7314,10 +7353,10 @@
         <v>41</v>
       </c>
       <c r="D386" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E386" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -7334,7 +7373,7 @@
         <v>49</v>
       </c>
       <c r="E387" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -7348,10 +7387,10 @@
         <v>43</v>
       </c>
       <c r="D388" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E388" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -7365,10 +7404,10 @@
         <v>44</v>
       </c>
       <c r="D389" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E389" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -7385,7 +7424,7 @@
         <v>48</v>
       </c>
       <c r="E390" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7402,7 +7441,7 @@
         <v>50</v>
       </c>
       <c r="E391" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7416,10 +7455,10 @@
         <v>47</v>
       </c>
       <c r="D392" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E392" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7436,7 +7475,7 @@
         <v>48</v>
       </c>
       <c r="E393" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7453,7 +7492,7 @@
         <v>49</v>
       </c>
       <c r="E394" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -7470,7 +7509,7 @@
         <v>50</v>
       </c>
       <c r="E395" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7487,7 +7526,7 @@
         <v>50</v>
       </c>
       <c r="E396" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -7501,10 +7540,10 @@
         <v>29</v>
       </c>
       <c r="D397" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E397" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7521,7 +7560,7 @@
         <v>50</v>
       </c>
       <c r="E398" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7538,7 +7577,7 @@
         <v>50</v>
       </c>
       <c r="E399" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7552,10 +7591,10 @@
         <v>32</v>
       </c>
       <c r="D400" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E400" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7569,10 +7608,10 @@
         <v>33</v>
       </c>
       <c r="D401" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E401" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7589,7 +7628,7 @@
         <v>50</v>
       </c>
       <c r="E402" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7603,10 +7642,10 @@
         <v>35</v>
       </c>
       <c r="D403" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E403" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7620,10 +7659,10 @@
         <v>36</v>
       </c>
       <c r="D404" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E404" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7637,10 +7676,10 @@
         <v>37</v>
       </c>
       <c r="D405" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E405" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7657,7 +7696,7 @@
         <v>50</v>
       </c>
       <c r="E406" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7674,7 +7713,7 @@
         <v>48</v>
       </c>
       <c r="E407" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7688,10 +7727,10 @@
         <v>40</v>
       </c>
       <c r="D408" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E408" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7705,10 +7744,10 @@
         <v>41</v>
       </c>
       <c r="D409" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E409" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -7725,7 +7764,7 @@
         <v>49</v>
       </c>
       <c r="E410" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7739,10 +7778,10 @@
         <v>43</v>
       </c>
       <c r="D411" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E411" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7756,10 +7795,10 @@
         <v>44</v>
       </c>
       <c r="D412" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E412" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7776,7 +7815,7 @@
         <v>48</v>
       </c>
       <c r="E413" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7793,7 +7832,7 @@
         <v>50</v>
       </c>
       <c r="E414" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7807,10 +7846,10 @@
         <v>47</v>
       </c>
       <c r="D415" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E415" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7827,7 +7866,7 @@
         <v>48</v>
       </c>
       <c r="E416" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7844,7 +7883,7 @@
         <v>49</v>
       </c>
       <c r="E417" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7861,7 +7900,7 @@
         <v>50</v>
       </c>
       <c r="E418" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7875,10 +7914,7 @@
         <v>28</v>
       </c>
       <c r="D419" t="s">
-        <v>53</v>
-      </c>
-      <c r="E419" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7892,10 +7928,10 @@
         <v>29</v>
       </c>
       <c r="D420" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E420" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7909,10 +7945,10 @@
         <v>30</v>
       </c>
       <c r="D421" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E421" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7929,7 +7965,7 @@
         <v>50</v>
       </c>
       <c r="E422" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7943,7 +7979,10 @@
         <v>32</v>
       </c>
       <c r="D423" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="E423" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7960,7 +7999,7 @@
         <v>50</v>
       </c>
       <c r="E424" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7974,10 +8013,10 @@
         <v>34</v>
       </c>
       <c r="D425" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E425" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7994,7 +8033,7 @@
         <v>50</v>
       </c>
       <c r="E426" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -8008,10 +8047,10 @@
         <v>36</v>
       </c>
       <c r="D427" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E427" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -8028,7 +8067,7 @@
         <v>50</v>
       </c>
       <c r="E428" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -8042,10 +8081,10 @@
         <v>38</v>
       </c>
       <c r="D429" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E429" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -8062,7 +8101,7 @@
         <v>48</v>
       </c>
       <c r="E430" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -8076,10 +8115,10 @@
         <v>40</v>
       </c>
       <c r="D431" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E431" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -8093,10 +8132,10 @@
         <v>41</v>
       </c>
       <c r="D432" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E432" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -8113,7 +8152,7 @@
         <v>49</v>
       </c>
       <c r="E433" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -8127,10 +8166,10 @@
         <v>43</v>
       </c>
       <c r="D434" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E434" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -8144,10 +8183,10 @@
         <v>44</v>
       </c>
       <c r="D435" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E435" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -8164,7 +8203,7 @@
         <v>48</v>
       </c>
       <c r="E436" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -8181,7 +8220,7 @@
         <v>50</v>
       </c>
       <c r="E437" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -8195,10 +8234,10 @@
         <v>47</v>
       </c>
       <c r="D438" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E438" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -8215,7 +8254,7 @@
         <v>48</v>
       </c>
       <c r="E439" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -8229,10 +8268,10 @@
         <v>26</v>
       </c>
       <c r="D440" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E440" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -8249,7 +8288,7 @@
         <v>50</v>
       </c>
       <c r="E441" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -8263,10 +8302,10 @@
         <v>28</v>
       </c>
       <c r="D442" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E442" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -8280,10 +8319,10 @@
         <v>29</v>
       </c>
       <c r="D443" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E443" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -8297,10 +8336,10 @@
         <v>30</v>
       </c>
       <c r="D444" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E444" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -8317,7 +8356,7 @@
         <v>50</v>
       </c>
       <c r="E445" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -8331,10 +8370,7 @@
         <v>32</v>
       </c>
       <c r="D446" t="s">
-        <v>50</v>
-      </c>
-      <c r="E446" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -8351,7 +8387,7 @@
         <v>50</v>
       </c>
       <c r="E447" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -8368,7 +8404,7 @@
         <v>50</v>
       </c>
       <c r="E448" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -8385,7 +8421,7 @@
         <v>50</v>
       </c>
       <c r="E449" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -8399,10 +8435,10 @@
         <v>36</v>
       </c>
       <c r="D450" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E450" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -8416,10 +8452,10 @@
         <v>37</v>
       </c>
       <c r="D451" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E451" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -8433,10 +8469,7 @@
         <v>38</v>
       </c>
       <c r="D452" t="s">
-        <v>50</v>
-      </c>
-      <c r="E452" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8450,10 +8483,10 @@
         <v>39</v>
       </c>
       <c r="D453" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E453" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8467,10 +8500,10 @@
         <v>40</v>
       </c>
       <c r="D454" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E454" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -8487,7 +8520,7 @@
         <v>55</v>
       </c>
       <c r="E455" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -8504,7 +8537,7 @@
         <v>49</v>
       </c>
       <c r="E456" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -8518,10 +8551,10 @@
         <v>43</v>
       </c>
       <c r="D457" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E457" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8538,7 +8571,7 @@
         <v>62</v>
       </c>
       <c r="E458" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -8552,10 +8585,10 @@
         <v>45</v>
       </c>
       <c r="D459" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E459" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -8572,7 +8605,7 @@
         <v>50</v>
       </c>
       <c r="E460" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -8586,10 +8619,10 @@
         <v>47</v>
       </c>
       <c r="D461" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E461" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -8606,7 +8639,7 @@
         <v>48</v>
       </c>
       <c r="E462" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8620,10 +8653,10 @@
         <v>26</v>
       </c>
       <c r="D463" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E463" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8637,10 +8670,10 @@
         <v>27</v>
       </c>
       <c r="D464" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E464" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8654,10 +8687,10 @@
         <v>28</v>
       </c>
       <c r="D465" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E465" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -8671,10 +8704,10 @@
         <v>29</v>
       </c>
       <c r="D466" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E466" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -8688,10 +8721,10 @@
         <v>30</v>
       </c>
       <c r="D467" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E467" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8708,7 +8741,7 @@
         <v>50</v>
       </c>
       <c r="E468" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8722,7 +8755,10 @@
         <v>32</v>
       </c>
       <c r="D469" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="E469" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8739,7 +8775,7 @@
         <v>50</v>
       </c>
       <c r="E470" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8756,7 +8792,7 @@
         <v>50</v>
       </c>
       <c r="E471" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8773,7 +8809,7 @@
         <v>50</v>
       </c>
       <c r="E472" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -8787,10 +8823,10 @@
         <v>36</v>
       </c>
       <c r="D473" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E473" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8804,10 +8840,10 @@
         <v>37</v>
       </c>
       <c r="D474" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E474" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -8824,7 +8860,7 @@
         <v>50</v>
       </c>
       <c r="E475" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8841,7 +8877,7 @@
         <v>48</v>
       </c>
       <c r="E476" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8855,10 +8891,10 @@
         <v>40</v>
       </c>
       <c r="D477" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E477" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8875,7 +8911,7 @@
         <v>55</v>
       </c>
       <c r="E478" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8892,7 +8928,7 @@
         <v>49</v>
       </c>
       <c r="E479" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -8906,10 +8942,10 @@
         <v>43</v>
       </c>
       <c r="D480" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E480" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8923,10 +8959,10 @@
         <v>44</v>
       </c>
       <c r="D481" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E481" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8943,7 +8979,7 @@
         <v>48</v>
       </c>
       <c r="E482" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8960,7 +8996,7 @@
         <v>50</v>
       </c>
       <c r="E483" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8974,10 +9010,10 @@
         <v>47</v>
       </c>
       <c r="D484" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E484" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Dataframes/phenotypes.xlsx
+++ b/Output/Dataframes/phenotypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="154">
   <si>
     <t>sample_id</t>
   </si>
@@ -28,67 +28,67 @@
     <t>genotype</t>
   </si>
   <si>
-    <t>D402000259</t>
-  </si>
-  <si>
-    <t>D402000265</t>
-  </si>
-  <si>
-    <t>D402007216</t>
-  </si>
-  <si>
-    <t>D402007217</t>
-  </si>
-  <si>
-    <t>D402007228</t>
-  </si>
-  <si>
-    <t>D402007237</t>
-  </si>
-  <si>
-    <t>D402007245</t>
-  </si>
-  <si>
-    <t>D402007247</t>
-  </si>
-  <si>
-    <t>D402007248</t>
-  </si>
-  <si>
-    <t>D402007259</t>
-  </si>
-  <si>
-    <t>D402007279</t>
-  </si>
-  <si>
-    <t>D402007284</t>
-  </si>
-  <si>
-    <t>D402007285</t>
-  </si>
-  <si>
-    <t>D402007290</t>
-  </si>
-  <si>
-    <t>D402007293</t>
-  </si>
-  <si>
-    <t>D402007304</t>
-  </si>
-  <si>
-    <t>D402007305</t>
-  </si>
-  <si>
-    <t>D402007310</t>
-  </si>
-  <si>
-    <t>D402007314</t>
-  </si>
-  <si>
-    <t>D402007363</t>
-  </si>
-  <si>
-    <t>D402007364</t>
+    <t>D402000262</t>
+  </si>
+  <si>
+    <t>D402000264</t>
+  </si>
+  <si>
+    <t>D402007268</t>
+  </si>
+  <si>
+    <t>D402007270</t>
+  </si>
+  <si>
+    <t>D402007274</t>
+  </si>
+  <si>
+    <t>D402007275</t>
+  </si>
+  <si>
+    <t>D402007276</t>
+  </si>
+  <si>
+    <t>D402007278</t>
+  </si>
+  <si>
+    <t>D402007280</t>
+  </si>
+  <si>
+    <t>D402007281</t>
+  </si>
+  <si>
+    <t>D402007287</t>
+  </si>
+  <si>
+    <t>D402007288</t>
+  </si>
+  <si>
+    <t>D402007291</t>
+  </si>
+  <si>
+    <t>D402007295</t>
+  </si>
+  <si>
+    <t>D402007297</t>
+  </si>
+  <si>
+    <t>D402007298</t>
+  </si>
+  <si>
+    <t>D402007315</t>
+  </si>
+  <si>
+    <t>D402007353</t>
+  </si>
+  <si>
+    <t>D402007355</t>
+  </si>
+  <si>
+    <t>D402007361</t>
+  </si>
+  <si>
+    <t>D402007362</t>
   </si>
   <si>
     <t>CACNA1S</t>
@@ -172,79 +172,154 @@
     <t>IM</t>
   </si>
   <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>UnfavorableResponseGenotype</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
     <t>NM_or_IM</t>
   </si>
   <si>
+    <t>Not_PM</t>
+  </si>
+  <si>
+    <t>IA,SA</t>
+  </si>
+  <si>
+    <t>IM_or_PM</t>
+  </si>
+  <si>
+    <t>FavorableResponseGenotype</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>IM,NM_or_IM</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>IM,IM,NM_or_IM,NM_or_IM</t>
+  </si>
+  <si>
+    <t>IA,IA_or_SA</t>
+  </si>
+  <si>
     <t>NM,IM,IM</t>
   </si>
   <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>UnfavorableResponseGenotype</t>
-  </si>
-  <si>
-    <t>RA</t>
-  </si>
-  <si>
-    <t>SA</t>
+    <t>Indeterminate,MHS,MHS</t>
+  </si>
+  <si>
+    <t>IM,PM</t>
+  </si>
+  <si>
+    <t>Indeterminate,Deficient,Deficient,Deficient</t>
+  </si>
+  <si>
+    <t>IM,PM,IM_or_PM</t>
   </si>
   <si>
     <t>RM</t>
   </si>
   <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>FavorableResponseGenotype</t>
-  </si>
-  <si>
-    <t>IA,SA</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>IM,NM_or_IM</t>
-  </si>
-  <si>
-    <t>Indeterminate,Indeterminate,Indeterminate,Indeterminate,Indeterminate,Indeterminate,Indeterminate,Indeterminate,Indeterminate,Deficient,Deficient,Deficient,Deficient,Deficient,Deficient</t>
-  </si>
-  <si>
-    <t>Indeterminate,MHS,MHS</t>
-  </si>
-  <si>
-    <t>IM,unknown</t>
-  </si>
-  <si>
-    <t>IM,IM,NM_or_IM,NM_or_IM</t>
-  </si>
-  <si>
-    <t>MHS</t>
+    <t>NM,IM,PM</t>
   </si>
   <si>
     <t>Indeterminate,Indeterminate,Deficient</t>
   </si>
   <si>
-    <t>Indeterminate,MHS,MHS,MHS,MHS,MHS</t>
-  </si>
-  <si>
     <t>NM,NM_or_IM</t>
   </si>
   <si>
     <t>WT/WT</t>
   </si>
   <si>
+    <t>*1A/*1F</t>
+  </si>
+  <si>
+    <t>*1/*1H</t>
+  </si>
+  <si>
+    <t>*1/*6</t>
+  </si>
+  <si>
+    <t>*1A/*1A</t>
+  </si>
+  <si>
+    <t>*1/*1</t>
+  </si>
+  <si>
+    <t>*1/*4B</t>
+  </si>
+  <si>
+    <t>*4/*35</t>
+  </si>
+  <si>
+    <t>*1B/*1B</t>
+  </si>
+  <si>
+    <t>*3/*3</t>
+  </si>
+  <si>
+    <t>c.1129-5923C&gt;G/c.=</t>
+  </si>
+  <si>
+    <t>B/Null</t>
+  </si>
+  <si>
+    <t>*A/*A</t>
+  </si>
+  <si>
+    <t>rs12979860C/rs12979860T</t>
+  </si>
+  <si>
+    <t>Null/m.=</t>
+  </si>
+  <si>
+    <t>*4/*4</t>
+  </si>
+  <si>
+    <t>*6/*6</t>
+  </si>
+  <si>
+    <t>*1/*60</t>
+  </si>
+  <si>
     <t>*1F/*1F</t>
   </si>
   <si>
-    <t>*1/*1</t>
-  </si>
-  <si>
-    <t>*1/*6</t>
+    <t>*1A/*1C</t>
+  </si>
+  <si>
+    <t>*1/*2,*1/*35</t>
+  </si>
+  <si>
+    <t>*1/*22</t>
+  </si>
+  <si>
+    <t>c.=/c.=</t>
+  </si>
+  <si>
+    <t>B/B</t>
+  </si>
+  <si>
+    <t>*4/*5S,*5/*7</t>
+  </si>
+  <si>
+    <t>*1/*28+60+80+93</t>
+  </si>
+  <si>
+    <t>*6/*15</t>
   </si>
   <si>
     <t>*1A/*3</t>
@@ -253,196 +328,154 @@
     <t>*1/*2</t>
   </si>
   <si>
+    <t>*2/*2</t>
+  </si>
+  <si>
+    <t>*1A/*7A+1B,*1B/*7A</t>
+  </si>
+  <si>
+    <t>*1/*3</t>
+  </si>
+  <si>
+    <t>*2+3/*3</t>
+  </si>
+  <si>
+    <t>*A/*B</t>
+  </si>
+  <si>
+    <t>rs12979860C/rs12979860C</t>
+  </si>
+  <si>
+    <t>*5/*5</t>
+  </si>
+  <si>
+    <t>*4B/*4B</t>
+  </si>
+  <si>
+    <t>*1/*2+3,*2/*3</t>
+  </si>
+  <si>
+    <t>*4/*5</t>
+  </si>
+  <si>
+    <t>*1/*9</t>
+  </si>
+  <si>
+    <t>*1A/*4+1C</t>
+  </si>
+  <si>
+    <t>*1/*4</t>
+  </si>
+  <si>
+    <t>*A/*C</t>
+  </si>
+  <si>
+    <t>*1/*12</t>
+  </si>
+  <si>
+    <t>*1A/*4+7A+1B,*1B/*4+7A,*4/*7A+1B</t>
+  </si>
+  <si>
+    <t>*1/*3,*1/*2+3,*2/*3,*2/*2+3</t>
+  </si>
+  <si>
+    <t>*4/*11B,*11C/*30</t>
+  </si>
+  <si>
     <t>*1/*1,*1/*27,*27/*27</t>
   </si>
   <si>
-    <t>*1B/*1B</t>
-  </si>
-  <si>
-    <t>*3/*3</t>
-  </si>
-  <si>
-    <t>c.=/c.=</t>
-  </si>
-  <si>
-    <t>B/Null</t>
+    <t>*B/*B</t>
+  </si>
+  <si>
+    <t>rs12979860T/rs12979860T</t>
+  </si>
+  <si>
+    <t>*4/*5E,*5/*6</t>
+  </si>
+  <si>
+    <t>WT/WT,c.6487C&gt;T/WT,c.6487C&gt;T/c.6487C&gt;T</t>
+  </si>
+  <si>
+    <t>*28+60+80+93/*28+60+80+93</t>
+  </si>
+  <si>
+    <t>*4/*14</t>
+  </si>
+  <si>
+    <t>*4/*6</t>
+  </si>
+  <si>
+    <t>*1F/*1L</t>
+  </si>
+  <si>
+    <t>*1/*14</t>
+  </si>
+  <si>
+    <t>*6/*13</t>
   </si>
   <si>
     <t>*B/*C</t>
   </si>
   <si>
-    <t>rs12979860T/rs12979860T</t>
-  </si>
-  <si>
-    <t>Null/m.=</t>
-  </si>
-  <si>
-    <t>*4/*4</t>
-  </si>
-  <si>
-    <t>*5/*5</t>
-  </si>
-  <si>
-    <t>*1A/*1F</t>
-  </si>
-  <si>
-    <t>*1/*4</t>
-  </si>
-  <si>
-    <t>*1A/*1C</t>
-  </si>
-  <si>
-    <t>*1/*4B</t>
+    <t>*1/*33</t>
+  </si>
+  <si>
+    <t>*1B/*5A+7A+1B</t>
+  </si>
+  <si>
+    <t>*1/*4B,*4B/*27</t>
+  </si>
+  <si>
+    <t>*4/*31</t>
+  </si>
+  <si>
+    <t>B/Naone,Naone/Serres,Madrid/Naone,Naone/Nashville</t>
+  </si>
+  <si>
+    <t>*1/*4B,*4B/*27,*4B/*34</t>
+  </si>
+  <si>
+    <t>*1B/*7B</t>
+  </si>
+  <si>
+    <t>*1/*1xN</t>
+  </si>
+  <si>
+    <t>*1/*28</t>
+  </si>
+  <si>
+    <t>*1/*2,*2/*27</t>
+  </si>
+  <si>
+    <t>*2/*2,*2/*31,*31/*31</t>
+  </si>
+  <si>
+    <t>B/B,B/Nashville,Nashville/Nashville</t>
+  </si>
+  <si>
+    <t>*60/*60</t>
+  </si>
+  <si>
+    <t>*2/*4B</t>
+  </si>
+  <si>
+    <t>*1/*5</t>
+  </si>
+  <si>
+    <t>*22/*22</t>
+  </si>
+  <si>
+    <t>*2+3/*2+3</t>
+  </si>
+  <si>
+    <t>*28+60+80/*28+60+80+93</t>
   </si>
   <si>
     <t>*2/*4</t>
   </si>
   <si>
-    <t>*1B/*5A+7A+1B</t>
-  </si>
-  <si>
-    <t>*1/*3</t>
-  </si>
-  <si>
-    <t>B/Serres</t>
-  </si>
-  <si>
-    <t>*A/*A</t>
-  </si>
-  <si>
-    <t>rs12979860C/rs12979860T</t>
-  </si>
-  <si>
-    <t>*1/*28+60+80+93</t>
-  </si>
-  <si>
-    <t>F508delCTT/WT</t>
-  </si>
-  <si>
-    <t>*1A/*1A</t>
-  </si>
-  <si>
-    <t>*1/*10</t>
-  </si>
-  <si>
-    <t>B/B</t>
-  </si>
-  <si>
-    <t>*4/*5</t>
-  </si>
-  <si>
-    <t>*60/*60</t>
-  </si>
-  <si>
-    <t>*A/*B</t>
-  </si>
-  <si>
-    <t>*28+60+80+93/*28+60+80+93</t>
-  </si>
-  <si>
-    <t>*2/*2</t>
-  </si>
-  <si>
-    <t>*4/*6</t>
-  </si>
-  <si>
-    <t>*1A/*7A+1B,*1B/*7A</t>
-  </si>
-  <si>
-    <t>rs12979860C/rs12979860C</t>
-  </si>
-  <si>
-    <t>*28+60+80+93/*60</t>
-  </si>
-  <si>
-    <t>*1/*22</t>
-  </si>
-  <si>
-    <t>c.1129-5923C&gt;G/c.=</t>
-  </si>
-  <si>
-    <t>*4/*5E,*5/*6</t>
-  </si>
-  <si>
-    <t>*1/*60</t>
-  </si>
-  <si>
-    <t>*1/*2+3,*2/*3</t>
-  </si>
-  <si>
-    <t>B/B,Val77Leu/B,B/Roubaix,B/Serres,B/Nashville,Val77Leu/Val77Leu,Val77Leu/Roubaix,Val77Leu/Serres,Val77Leu/Nashville,Roubaix/Roubaix,Roubaix/Serres,Nashville/Roubaix,Serres/Serres,Nashville/Serres,Nashville/Nashville</t>
-  </si>
-  <si>
-    <t>WT/WT,c.6487C&gt;T/WT,c.6487C&gt;T/c.6487C&gt;T</t>
-  </si>
-  <si>
-    <t>*1/*28+60+80,*28/*60+80</t>
-  </si>
-  <si>
-    <t>*6/*6</t>
-  </si>
-  <si>
-    <t>*1/*9</t>
-  </si>
-  <si>
-    <t>*4B/*4B</t>
-  </si>
-  <si>
-    <t>*4/*35</t>
-  </si>
-  <si>
-    <t>*1H/*9</t>
-  </si>
-  <si>
-    <t>*2/*33</t>
-  </si>
-  <si>
-    <t>*2+3/*3</t>
-  </si>
-  <si>
-    <t>*B/*B</t>
-  </si>
-  <si>
-    <t>*1/*5</t>
-  </si>
-  <si>
-    <t>*A/*C</t>
-  </si>
-  <si>
-    <t>*1/*3,*1/*2+3,*2/*3,*2/*2+3</t>
-  </si>
-  <si>
-    <t>*1A/*4+1C</t>
-  </si>
-  <si>
-    <t>c.1840C&gt;T/WT</t>
-  </si>
-  <si>
-    <t>*2/*4B</t>
-  </si>
-  <si>
-    <t>*3/*22</t>
-  </si>
-  <si>
-    <t>*1/*14</t>
-  </si>
-  <si>
-    <t>*3/*3,*2+3/*3,*2+3/*2+3</t>
-  </si>
-  <si>
-    <t>*1B/*7B</t>
-  </si>
-  <si>
-    <t>B/B,B/Nashville,Nashville/Nashville</t>
-  </si>
-  <si>
-    <t>WT/WT,c.6487C&gt;T/WT,c.14545G&gt;A/WT,c.6487C&gt;T/c.6487C&gt;T,c.6487C&gt;T/c.14545G&gt;A,c.14545G&gt;A/c.14545G&gt;A</t>
-  </si>
-  <si>
     <t>*1A/*1F,*1F/*8</t>
-  </si>
-  <si>
-    <t>*2/*35</t>
   </si>
 </sst>
 </file>
@@ -834,7 +867,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -851,7 +884,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -868,7 +901,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -882,10 +915,10 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -902,7 +935,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -916,10 +949,10 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -933,10 +966,10 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -950,10 +983,10 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -967,10 +1000,10 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -987,7 +1020,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1004,7 +1037,7 @@
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1018,10 +1051,10 @@
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1038,7 +1071,7 @@
         <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1052,10 +1085,10 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1072,7 +1105,7 @@
         <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1086,10 +1119,10 @@
         <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1103,10 +1136,10 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1123,7 +1156,7 @@
         <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1137,10 +1170,10 @@
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1154,10 +1187,10 @@
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1174,7 +1207,7 @@
         <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1191,7 +1224,7 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1208,7 +1241,7 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1225,7 +1258,7 @@
         <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1242,7 +1275,7 @@
         <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1259,7 +1292,7 @@
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1276,7 +1309,7 @@
         <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1290,10 +1323,10 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1307,10 +1340,10 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1327,7 +1360,7 @@
         <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1344,7 +1377,7 @@
         <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1358,10 +1391,10 @@
         <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1375,10 +1408,10 @@
         <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1392,10 +1425,10 @@
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1409,10 +1442,10 @@
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1426,10 +1459,10 @@
         <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1446,7 +1479,7 @@
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1463,7 +1496,7 @@
         <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1480,7 +1513,7 @@
         <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1494,10 +1527,10 @@
         <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1514,7 +1547,7 @@
         <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1528,10 +1561,10 @@
         <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1545,10 +1578,10 @@
         <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1565,7 +1598,7 @@
         <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1582,7 +1615,7 @@
         <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1599,7 +1632,7 @@
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1616,7 +1649,7 @@
         <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1630,10 +1663,10 @@
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1650,7 +1683,7 @@
         <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1667,7 +1700,7 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1681,10 +1714,10 @@
         <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E52" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1698,10 +1731,10 @@
         <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1715,10 +1748,10 @@
         <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E54" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1732,10 +1765,10 @@
         <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E55" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1752,7 +1785,7 @@
         <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1769,7 +1802,7 @@
         <v>50</v>
       </c>
       <c r="E57" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1786,7 +1819,7 @@
         <v>50</v>
       </c>
       <c r="E58" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1800,10 +1833,10 @@
         <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E59" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1817,10 +1850,10 @@
         <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1837,7 +1870,7 @@
         <v>50</v>
       </c>
       <c r="E61" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1854,7 +1887,7 @@
         <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1868,10 +1901,10 @@
         <v>40</v>
       </c>
       <c r="D63" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1885,10 +1918,10 @@
         <v>41</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E64" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1905,7 +1938,7 @@
         <v>49</v>
       </c>
       <c r="E65" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1919,10 +1952,10 @@
         <v>43</v>
       </c>
       <c r="D66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E66" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1936,10 +1969,10 @@
         <v>44</v>
       </c>
       <c r="D67" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E67" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1956,7 +1989,7 @@
         <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1973,7 +2006,7 @@
         <v>50</v>
       </c>
       <c r="E69" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1987,10 +2020,10 @@
         <v>47</v>
       </c>
       <c r="D70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E70" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2007,7 +2040,7 @@
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2024,7 +2057,7 @@
         <v>49</v>
       </c>
       <c r="E72" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2041,7 +2074,7 @@
         <v>50</v>
       </c>
       <c r="E73" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2055,10 +2088,7 @@
         <v>28</v>
       </c>
       <c r="D74" t="s">
-        <v>50</v>
-      </c>
-      <c r="E74" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2075,7 +2105,7 @@
         <v>51</v>
       </c>
       <c r="E75" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2092,7 +2122,7 @@
         <v>50</v>
       </c>
       <c r="E76" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2109,7 +2139,7 @@
         <v>50</v>
       </c>
       <c r="E77" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2123,10 +2153,10 @@
         <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E78" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2143,7 +2173,7 @@
         <v>50</v>
       </c>
       <c r="E79" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2160,7 +2190,7 @@
         <v>50</v>
       </c>
       <c r="E80" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2177,7 +2207,7 @@
         <v>50</v>
       </c>
       <c r="E81" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2191,10 +2221,10 @@
         <v>36</v>
       </c>
       <c r="D82" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E82" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2208,10 +2238,10 @@
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E83" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2228,7 +2258,7 @@
         <v>50</v>
       </c>
       <c r="E84" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2245,7 +2275,7 @@
         <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2259,10 +2289,10 @@
         <v>40</v>
       </c>
       <c r="D86" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E86" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2276,10 +2306,10 @@
         <v>41</v>
       </c>
       <c r="D87" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E87" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2296,7 +2326,7 @@
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2310,10 +2340,10 @@
         <v>43</v>
       </c>
       <c r="D89" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E89" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2327,10 +2357,10 @@
         <v>44</v>
       </c>
       <c r="D90" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E90" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2347,7 +2377,7 @@
         <v>48</v>
       </c>
       <c r="E91" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2364,7 +2394,7 @@
         <v>50</v>
       </c>
       <c r="E92" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2378,10 +2408,10 @@
         <v>47</v>
       </c>
       <c r="D93" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E93" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2398,7 +2428,7 @@
         <v>48</v>
       </c>
       <c r="E94" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2415,7 +2445,7 @@
         <v>49</v>
       </c>
       <c r="E95" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2432,7 +2462,7 @@
         <v>50</v>
       </c>
       <c r="E96" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2446,10 +2476,10 @@
         <v>28</v>
       </c>
       <c r="D97" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E97" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2463,10 +2493,10 @@
         <v>29</v>
       </c>
       <c r="D98" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E98" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2480,10 +2510,10 @@
         <v>30</v>
       </c>
       <c r="D99" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E99" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2500,7 +2530,7 @@
         <v>50</v>
       </c>
       <c r="E100" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2517,7 +2547,7 @@
         <v>50</v>
       </c>
       <c r="E101" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2531,10 +2561,10 @@
         <v>33</v>
       </c>
       <c r="D102" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E102" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2551,7 +2581,7 @@
         <v>50</v>
       </c>
       <c r="E103" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2568,7 +2598,7 @@
         <v>50</v>
       </c>
       <c r="E104" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2582,10 +2612,10 @@
         <v>36</v>
       </c>
       <c r="D105" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E105" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2602,7 +2632,7 @@
         <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2619,7 +2649,7 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2636,7 +2666,7 @@
         <v>48</v>
       </c>
       <c r="E108" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2650,10 +2680,10 @@
         <v>40</v>
       </c>
       <c r="D109" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E109" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2667,10 +2697,10 @@
         <v>41</v>
       </c>
       <c r="D110" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E110" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2687,7 +2717,7 @@
         <v>49</v>
       </c>
       <c r="E111" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2701,10 +2731,10 @@
         <v>43</v>
       </c>
       <c r="D112" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E112" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2718,10 +2748,10 @@
         <v>44</v>
       </c>
       <c r="D113" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E113" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2738,7 +2768,7 @@
         <v>48</v>
       </c>
       <c r="E114" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2755,7 +2785,7 @@
         <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2772,7 +2802,7 @@
         <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2789,7 +2819,7 @@
         <v>48</v>
       </c>
       <c r="E117" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2806,7 +2836,7 @@
         <v>49</v>
       </c>
       <c r="E118" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2823,7 +2853,7 @@
         <v>50</v>
       </c>
       <c r="E119" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2837,10 +2867,10 @@
         <v>28</v>
       </c>
       <c r="D120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E120" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2857,7 +2887,7 @@
         <v>50</v>
       </c>
       <c r="E121" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2874,7 +2904,7 @@
         <v>50</v>
       </c>
       <c r="E122" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2888,10 +2918,10 @@
         <v>31</v>
       </c>
       <c r="D123" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2905,10 +2935,10 @@
         <v>32</v>
       </c>
       <c r="D124" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2925,7 +2955,7 @@
         <v>50</v>
       </c>
       <c r="E125" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2942,7 +2972,7 @@
         <v>50</v>
       </c>
       <c r="E126" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2959,7 +2989,7 @@
         <v>50</v>
       </c>
       <c r="E127" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2973,10 +3003,10 @@
         <v>36</v>
       </c>
       <c r="D128" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E128" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2990,10 +3020,10 @@
         <v>37</v>
       </c>
       <c r="D129" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E129" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3010,7 +3040,7 @@
         <v>50</v>
       </c>
       <c r="E130" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3027,7 +3057,7 @@
         <v>48</v>
       </c>
       <c r="E131" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3041,10 +3071,10 @@
         <v>40</v>
       </c>
       <c r="D132" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E132" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3058,10 +3088,10 @@
         <v>41</v>
       </c>
       <c r="D133" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E133" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3078,7 +3108,7 @@
         <v>49</v>
       </c>
       <c r="E134" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3092,10 +3122,10 @@
         <v>43</v>
       </c>
       <c r="D135" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E135" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3109,10 +3139,10 @@
         <v>44</v>
       </c>
       <c r="D136" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E136" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3129,7 +3159,7 @@
         <v>48</v>
       </c>
       <c r="E137" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3146,7 +3176,7 @@
         <v>50</v>
       </c>
       <c r="E138" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3163,7 +3193,7 @@
         <v>51</v>
       </c>
       <c r="E139" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3180,7 +3210,7 @@
         <v>48</v>
       </c>
       <c r="E140" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3197,7 +3227,7 @@
         <v>49</v>
       </c>
       <c r="E141" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3214,7 +3244,7 @@
         <v>50</v>
       </c>
       <c r="E142" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3228,10 +3258,10 @@
         <v>28</v>
       </c>
       <c r="D143" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E143" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3245,10 +3275,10 @@
         <v>29</v>
       </c>
       <c r="D144" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E144" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3265,7 +3295,7 @@
         <v>50</v>
       </c>
       <c r="E145" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3279,10 +3309,10 @@
         <v>31</v>
       </c>
       <c r="D146" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E146" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3296,10 +3326,10 @@
         <v>32</v>
       </c>
       <c r="D147" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E147" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3313,10 +3343,7 @@
         <v>33</v>
       </c>
       <c r="D148" t="s">
-        <v>50</v>
-      </c>
-      <c r="E148" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3333,7 +3360,7 @@
         <v>50</v>
       </c>
       <c r="E149" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3347,10 +3374,10 @@
         <v>35</v>
       </c>
       <c r="D150" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E150" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3364,10 +3391,10 @@
         <v>36</v>
       </c>
       <c r="D151" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E151" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3384,7 +3411,7 @@
         <v>50</v>
       </c>
       <c r="E152" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3398,10 +3425,7 @@
         <v>38</v>
       </c>
       <c r="D153" t="s">
-        <v>51</v>
-      </c>
-      <c r="E153" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3418,7 +3442,7 @@
         <v>48</v>
       </c>
       <c r="E154" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3432,10 +3456,10 @@
         <v>40</v>
       </c>
       <c r="D155" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E155" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3449,10 +3473,10 @@
         <v>41</v>
       </c>
       <c r="D156" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E156" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3469,7 +3493,7 @@
         <v>49</v>
       </c>
       <c r="E157" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3483,10 +3507,10 @@
         <v>43</v>
       </c>
       <c r="D158" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E158" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3500,10 +3524,10 @@
         <v>44</v>
       </c>
       <c r="D159" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E159" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3517,10 +3541,10 @@
         <v>45</v>
       </c>
       <c r="D160" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E160" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3537,7 +3561,7 @@
         <v>50</v>
       </c>
       <c r="E161" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3551,10 +3575,10 @@
         <v>47</v>
       </c>
       <c r="D162" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E162" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3571,7 +3595,7 @@
         <v>48</v>
       </c>
       <c r="E163" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3588,7 +3612,7 @@
         <v>49</v>
       </c>
       <c r="E164" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3605,7 +3629,7 @@
         <v>50</v>
       </c>
       <c r="E165" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3619,10 +3643,10 @@
         <v>28</v>
       </c>
       <c r="D166" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E166" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3636,10 +3660,10 @@
         <v>29</v>
       </c>
       <c r="D167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E167" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3653,10 +3677,10 @@
         <v>30</v>
       </c>
       <c r="D168" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E168" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3670,7 +3694,10 @@
         <v>31</v>
       </c>
       <c r="D169" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="E169" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3687,7 +3714,7 @@
         <v>50</v>
       </c>
       <c r="E170" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3701,10 +3728,10 @@
         <v>33</v>
       </c>
       <c r="D171" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E171" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3721,7 +3748,7 @@
         <v>50</v>
       </c>
       <c r="E172" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3738,7 +3765,7 @@
         <v>50</v>
       </c>
       <c r="E173" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3752,10 +3779,10 @@
         <v>36</v>
       </c>
       <c r="D174" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E174" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3769,10 +3796,10 @@
         <v>37</v>
       </c>
       <c r="D175" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E175" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3789,7 +3816,7 @@
         <v>50</v>
       </c>
       <c r="E176" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3803,10 +3830,10 @@
         <v>39</v>
       </c>
       <c r="D177" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E177" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3820,10 +3847,10 @@
         <v>40</v>
       </c>
       <c r="D178" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E178" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3837,10 +3864,10 @@
         <v>41</v>
       </c>
       <c r="D179" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E179" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3857,7 +3884,7 @@
         <v>49</v>
       </c>
       <c r="E180" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3871,10 +3898,10 @@
         <v>43</v>
       </c>
       <c r="D181" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E181" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3888,10 +3915,10 @@
         <v>44</v>
       </c>
       <c r="D182" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E182" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3905,10 +3932,10 @@
         <v>45</v>
       </c>
       <c r="D183" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E183" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3925,7 +3952,7 @@
         <v>50</v>
       </c>
       <c r="E184" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3939,10 +3966,10 @@
         <v>47</v>
       </c>
       <c r="D185" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E185" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3959,7 +3986,7 @@
         <v>48</v>
       </c>
       <c r="E186" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3976,7 +4003,7 @@
         <v>49</v>
       </c>
       <c r="E187" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3993,7 +4020,7 @@
         <v>50</v>
       </c>
       <c r="E188" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4010,7 +4037,7 @@
         <v>50</v>
       </c>
       <c r="E189" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4024,10 +4051,10 @@
         <v>29</v>
       </c>
       <c r="D190" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E190" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4044,7 +4071,7 @@
         <v>50</v>
       </c>
       <c r="E191" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4058,10 +4085,10 @@
         <v>31</v>
       </c>
       <c r="D192" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E192" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4078,7 +4105,7 @@
         <v>50</v>
       </c>
       <c r="E193" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4092,10 +4119,10 @@
         <v>33</v>
       </c>
       <c r="D194" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E194" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4112,7 +4139,7 @@
         <v>50</v>
       </c>
       <c r="E195" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4126,10 +4153,10 @@
         <v>35</v>
       </c>
       <c r="D196" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E196" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4143,10 +4170,10 @@
         <v>36</v>
       </c>
       <c r="D197" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E197" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4160,10 +4187,10 @@
         <v>37</v>
       </c>
       <c r="D198" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E198" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4180,7 +4207,7 @@
         <v>50</v>
       </c>
       <c r="E199" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4197,7 +4224,7 @@
         <v>48</v>
       </c>
       <c r="E200" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4211,10 +4238,10 @@
         <v>40</v>
       </c>
       <c r="D201" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E201" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4228,10 +4255,10 @@
         <v>41</v>
       </c>
       <c r="D202" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E202" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4248,7 +4275,7 @@
         <v>49</v>
       </c>
       <c r="E203" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4262,10 +4289,10 @@
         <v>43</v>
       </c>
       <c r="D204" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E204" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4279,10 +4306,10 @@
         <v>44</v>
       </c>
       <c r="D205" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E205" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4299,7 +4326,7 @@
         <v>48</v>
       </c>
       <c r="E206" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4316,7 +4343,7 @@
         <v>50</v>
       </c>
       <c r="E207" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4330,10 +4357,10 @@
         <v>47</v>
       </c>
       <c r="D208" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E208" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4350,7 +4377,7 @@
         <v>48</v>
       </c>
       <c r="E209" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4367,7 +4394,7 @@
         <v>49</v>
       </c>
       <c r="E210" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4381,10 +4408,10 @@
         <v>27</v>
       </c>
       <c r="D211" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E211" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4398,10 +4425,10 @@
         <v>28</v>
       </c>
       <c r="D212" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E212" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4418,7 +4445,7 @@
         <v>50</v>
       </c>
       <c r="E213" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4435,7 +4462,7 @@
         <v>50</v>
       </c>
       <c r="E214" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4452,7 +4479,7 @@
         <v>50</v>
       </c>
       <c r="E215" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4466,10 +4493,10 @@
         <v>32</v>
       </c>
       <c r="D216" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E216" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4483,10 +4510,10 @@
         <v>33</v>
       </c>
       <c r="D217" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E217" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4503,7 +4530,7 @@
         <v>50</v>
       </c>
       <c r="E218" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4520,7 +4547,7 @@
         <v>50</v>
       </c>
       <c r="E219" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4534,10 +4561,10 @@
         <v>36</v>
       </c>
       <c r="D220" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E220" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4551,10 +4578,10 @@
         <v>37</v>
       </c>
       <c r="D221" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E221" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4571,7 +4598,7 @@
         <v>50</v>
       </c>
       <c r="E222" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4588,7 +4615,7 @@
         <v>48</v>
       </c>
       <c r="E223" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4605,7 +4632,7 @@
         <v>50</v>
       </c>
       <c r="E224" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4619,10 +4646,10 @@
         <v>41</v>
       </c>
       <c r="D225" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E225" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4639,7 +4666,7 @@
         <v>49</v>
       </c>
       <c r="E226" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4653,10 +4680,10 @@
         <v>43</v>
       </c>
       <c r="D227" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E227" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4670,10 +4697,10 @@
         <v>44</v>
       </c>
       <c r="D228" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E228" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4690,7 +4717,7 @@
         <v>48</v>
       </c>
       <c r="E229" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4707,7 +4734,7 @@
         <v>50</v>
       </c>
       <c r="E230" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4721,10 +4748,10 @@
         <v>47</v>
       </c>
       <c r="D231" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E231" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4741,7 +4768,7 @@
         <v>48</v>
       </c>
       <c r="E232" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4758,7 +4785,7 @@
         <v>49</v>
       </c>
       <c r="E233" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4775,7 +4802,7 @@
         <v>50</v>
       </c>
       <c r="E234" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4789,10 +4816,10 @@
         <v>28</v>
       </c>
       <c r="D235" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E235" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4806,10 +4833,10 @@
         <v>29</v>
       </c>
       <c r="D236" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E236" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4826,7 +4853,7 @@
         <v>50</v>
       </c>
       <c r="E237" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4843,7 +4870,7 @@
         <v>51</v>
       </c>
       <c r="E238" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4860,7 +4887,7 @@
         <v>51</v>
       </c>
       <c r="E239" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4877,7 +4904,7 @@
         <v>50</v>
       </c>
       <c r="E240" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4894,7 +4921,7 @@
         <v>50</v>
       </c>
       <c r="E241" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4911,7 +4938,7 @@
         <v>50</v>
       </c>
       <c r="E242" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4925,10 +4952,10 @@
         <v>36</v>
       </c>
       <c r="D243" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E243" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4942,10 +4969,10 @@
         <v>37</v>
       </c>
       <c r="D244" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E244" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4959,10 +4986,7 @@
         <v>38</v>
       </c>
       <c r="D245" t="s">
-        <v>50</v>
-      </c>
-      <c r="E245" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4979,7 +5003,7 @@
         <v>48</v>
       </c>
       <c r="E246" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4993,10 +5017,10 @@
         <v>40</v>
       </c>
       <c r="D247" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E247" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5010,10 +5034,10 @@
         <v>41</v>
       </c>
       <c r="D248" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E248" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5030,7 +5054,7 @@
         <v>49</v>
       </c>
       <c r="E249" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5044,10 +5068,10 @@
         <v>43</v>
       </c>
       <c r="D250" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E250" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5061,10 +5085,10 @@
         <v>44</v>
       </c>
       <c r="D251" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E251" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5081,7 +5105,7 @@
         <v>48</v>
       </c>
       <c r="E252" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5098,7 +5122,7 @@
         <v>50</v>
       </c>
       <c r="E253" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5112,10 +5136,10 @@
         <v>47</v>
       </c>
       <c r="D254" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E254" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5132,7 +5156,7 @@
         <v>48</v>
       </c>
       <c r="E255" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5149,7 +5173,7 @@
         <v>49</v>
       </c>
       <c r="E256" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5166,7 +5190,7 @@
         <v>50</v>
       </c>
       <c r="E257" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5183,7 +5207,7 @@
         <v>50</v>
       </c>
       <c r="E258" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5200,7 +5224,7 @@
         <v>50</v>
       </c>
       <c r="E259" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5217,7 +5241,7 @@
         <v>50</v>
       </c>
       <c r="E260" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5231,10 +5255,10 @@
         <v>31</v>
       </c>
       <c r="D261" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E261" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5251,7 +5275,7 @@
         <v>50</v>
       </c>
       <c r="E262" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5268,7 +5292,7 @@
         <v>50</v>
       </c>
       <c r="E263" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5285,7 +5309,7 @@
         <v>50</v>
       </c>
       <c r="E264" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5302,7 +5326,7 @@
         <v>50</v>
       </c>
       <c r="E265" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5316,10 +5340,10 @@
         <v>36</v>
       </c>
       <c r="D266" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E266" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5336,7 +5360,7 @@
         <v>50</v>
       </c>
       <c r="E267" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5353,7 +5377,7 @@
         <v>50</v>
       </c>
       <c r="E268" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5370,7 +5394,7 @@
         <v>48</v>
       </c>
       <c r="E269" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5384,10 +5408,10 @@
         <v>40</v>
       </c>
       <c r="D270" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E270" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5401,10 +5425,10 @@
         <v>41</v>
       </c>
       <c r="D271" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E271" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5421,7 +5445,7 @@
         <v>49</v>
       </c>
       <c r="E272" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5435,10 +5459,10 @@
         <v>43</v>
       </c>
       <c r="D273" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E273" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5452,10 +5476,10 @@
         <v>44</v>
       </c>
       <c r="D274" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E274" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5472,7 +5496,7 @@
         <v>48</v>
       </c>
       <c r="E275" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5489,7 +5513,7 @@
         <v>50</v>
       </c>
       <c r="E276" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5506,7 +5530,7 @@
         <v>50</v>
       </c>
       <c r="E277" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5523,7 +5547,7 @@
         <v>48</v>
       </c>
       <c r="E278" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5540,7 +5564,7 @@
         <v>49</v>
       </c>
       <c r="E279" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5557,7 +5581,7 @@
         <v>50</v>
       </c>
       <c r="E280" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5574,7 +5598,7 @@
         <v>50</v>
       </c>
       <c r="E281" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5588,10 +5612,10 @@
         <v>29</v>
       </c>
       <c r="D282" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E282" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5608,7 +5632,7 @@
         <v>50</v>
       </c>
       <c r="E283" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5625,7 +5649,7 @@
         <v>51</v>
       </c>
       <c r="E284" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5642,7 +5666,7 @@
         <v>50</v>
       </c>
       <c r="E285" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5656,10 +5680,10 @@
         <v>33</v>
       </c>
       <c r="D286" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E286" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5673,10 +5697,10 @@
         <v>34</v>
       </c>
       <c r="D287" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E287" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5693,7 +5717,7 @@
         <v>50</v>
       </c>
       <c r="E288" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5707,10 +5731,10 @@
         <v>36</v>
       </c>
       <c r="D289" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E289" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5727,7 +5751,7 @@
         <v>50</v>
       </c>
       <c r="E290" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5744,7 +5768,7 @@
         <v>50</v>
       </c>
       <c r="E291" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5761,7 +5785,7 @@
         <v>48</v>
       </c>
       <c r="E292" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5775,10 +5799,10 @@
         <v>40</v>
       </c>
       <c r="D293" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E293" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5792,10 +5816,10 @@
         <v>41</v>
       </c>
       <c r="D294" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E294" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5812,7 +5836,7 @@
         <v>49</v>
       </c>
       <c r="E295" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5826,10 +5850,10 @@
         <v>43</v>
       </c>
       <c r="D296" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E296" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5843,10 +5867,10 @@
         <v>44</v>
       </c>
       <c r="D297" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E297" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5863,7 +5887,7 @@
         <v>48</v>
       </c>
       <c r="E298" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5880,7 +5904,7 @@
         <v>50</v>
       </c>
       <c r="E299" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5897,7 +5921,7 @@
         <v>50</v>
       </c>
       <c r="E300" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5914,7 +5938,7 @@
         <v>48</v>
       </c>
       <c r="E301" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5931,7 +5955,7 @@
         <v>49</v>
       </c>
       <c r="E302" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5948,7 +5972,7 @@
         <v>50</v>
       </c>
       <c r="E303" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5965,7 +5989,7 @@
         <v>51</v>
       </c>
       <c r="E304" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5982,7 +6006,7 @@
         <v>50</v>
       </c>
       <c r="E305" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5999,7 +6023,7 @@
         <v>50</v>
       </c>
       <c r="E306" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6016,7 +6040,7 @@
         <v>50</v>
       </c>
       <c r="E307" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6030,10 +6054,10 @@
         <v>32</v>
       </c>
       <c r="D308" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E308" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6047,10 +6071,10 @@
         <v>33</v>
       </c>
       <c r="D309" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E309" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6067,7 +6091,7 @@
         <v>50</v>
       </c>
       <c r="E310" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6084,7 +6108,7 @@
         <v>50</v>
       </c>
       <c r="E311" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6098,10 +6122,10 @@
         <v>36</v>
       </c>
       <c r="D312" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E312" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6115,10 +6139,10 @@
         <v>37</v>
       </c>
       <c r="D313" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E313" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6132,10 +6156,7 @@
         <v>38</v>
       </c>
       <c r="D314" t="s">
-        <v>50</v>
-      </c>
-      <c r="E314" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6149,10 +6170,10 @@
         <v>39</v>
       </c>
       <c r="D315" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E315" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6166,10 +6187,10 @@
         <v>40</v>
       </c>
       <c r="D316" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E316" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6183,10 +6204,10 @@
         <v>41</v>
       </c>
       <c r="D317" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E317" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6203,7 +6224,7 @@
         <v>49</v>
       </c>
       <c r="E318" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6217,10 +6238,10 @@
         <v>43</v>
       </c>
       <c r="D319" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E319" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6234,10 +6255,10 @@
         <v>44</v>
       </c>
       <c r="D320" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E320" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -6251,10 +6272,10 @@
         <v>45</v>
       </c>
       <c r="D321" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E321" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -6271,7 +6292,7 @@
         <v>50</v>
       </c>
       <c r="E322" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -6285,10 +6306,10 @@
         <v>47</v>
       </c>
       <c r="D323" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E323" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -6305,7 +6326,7 @@
         <v>48</v>
       </c>
       <c r="E324" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -6322,7 +6343,7 @@
         <v>49</v>
       </c>
       <c r="E325" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -6339,7 +6360,7 @@
         <v>50</v>
       </c>
       <c r="E326" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6356,7 +6377,7 @@
         <v>50</v>
       </c>
       <c r="E327" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6373,7 +6394,7 @@
         <v>51</v>
       </c>
       <c r="E328" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6387,10 +6408,10 @@
         <v>30</v>
       </c>
       <c r="D329" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E329" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6404,10 +6425,7 @@
         <v>31</v>
       </c>
       <c r="D330" t="s">
-        <v>50</v>
-      </c>
-      <c r="E330" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6421,10 +6439,10 @@
         <v>32</v>
       </c>
       <c r="D331" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E331" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6441,7 +6459,7 @@
         <v>50</v>
       </c>
       <c r="E332" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6455,10 +6473,10 @@
         <v>34</v>
       </c>
       <c r="D333" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E333" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6475,7 +6493,7 @@
         <v>50</v>
       </c>
       <c r="E334" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6489,10 +6507,10 @@
         <v>36</v>
       </c>
       <c r="D335" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E335" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6506,10 +6524,10 @@
         <v>37</v>
       </c>
       <c r="D336" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E336" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6523,7 +6541,10 @@
         <v>38</v>
       </c>
       <c r="D337" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="E337" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6540,7 +6561,7 @@
         <v>48</v>
       </c>
       <c r="E338" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6557,7 +6578,7 @@
         <v>50</v>
       </c>
       <c r="E339" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6571,10 +6592,10 @@
         <v>41</v>
       </c>
       <c r="D340" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E340" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6591,7 +6612,7 @@
         <v>49</v>
       </c>
       <c r="E341" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6605,10 +6626,10 @@
         <v>43</v>
       </c>
       <c r="D342" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E342" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6622,10 +6643,10 @@
         <v>44</v>
       </c>
       <c r="D343" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E343" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6639,10 +6660,10 @@
         <v>45</v>
       </c>
       <c r="D344" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E344" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6659,7 +6680,7 @@
         <v>50</v>
       </c>
       <c r="E345" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6673,10 +6694,10 @@
         <v>47</v>
       </c>
       <c r="D346" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E346" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6693,7 +6714,7 @@
         <v>48</v>
       </c>
       <c r="E347" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6710,7 +6731,7 @@
         <v>49</v>
       </c>
       <c r="E348" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6727,7 +6748,7 @@
         <v>50</v>
       </c>
       <c r="E349" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6741,10 +6762,10 @@
         <v>28</v>
       </c>
       <c r="D350" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E350" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6758,10 +6779,10 @@
         <v>29</v>
       </c>
       <c r="D351" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E351" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6775,10 +6796,10 @@
         <v>30</v>
       </c>
       <c r="D352" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E352" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6792,10 +6813,10 @@
         <v>31</v>
       </c>
       <c r="D353" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E353" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6809,10 +6830,10 @@
         <v>32</v>
       </c>
       <c r="D354" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E354" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6826,10 +6847,10 @@
         <v>33</v>
       </c>
       <c r="D355" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E355" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6846,7 +6867,7 @@
         <v>50</v>
       </c>
       <c r="E356" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6860,10 +6881,10 @@
         <v>35</v>
       </c>
       <c r="D357" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E357" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6877,10 +6898,10 @@
         <v>36</v>
       </c>
       <c r="D358" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E358" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6894,10 +6915,10 @@
         <v>37</v>
       </c>
       <c r="D359" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E359" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6914,7 +6935,7 @@
         <v>50</v>
       </c>
       <c r="E360" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6931,7 +6952,7 @@
         <v>48</v>
       </c>
       <c r="E361" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6948,7 +6969,7 @@
         <v>50</v>
       </c>
       <c r="E362" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6962,10 +6983,10 @@
         <v>41</v>
       </c>
       <c r="D363" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E363" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6982,7 +7003,7 @@
         <v>49</v>
       </c>
       <c r="E364" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6996,10 +7017,10 @@
         <v>43</v>
       </c>
       <c r="D365" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E365" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7013,10 +7034,10 @@
         <v>44</v>
       </c>
       <c r="D366" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E366" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -7033,7 +7054,7 @@
         <v>48</v>
       </c>
       <c r="E367" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7050,7 +7071,7 @@
         <v>50</v>
       </c>
       <c r="E368" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7067,7 +7088,7 @@
         <v>51</v>
       </c>
       <c r="E369" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -7084,7 +7105,7 @@
         <v>48</v>
       </c>
       <c r="E370" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7101,7 +7122,7 @@
         <v>49</v>
       </c>
       <c r="E371" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7118,7 +7139,7 @@
         <v>50</v>
       </c>
       <c r="E372" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -7135,7 +7156,7 @@
         <v>50</v>
       </c>
       <c r="E373" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7149,10 +7170,10 @@
         <v>29</v>
       </c>
       <c r="D374" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E374" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -7166,10 +7187,10 @@
         <v>30</v>
       </c>
       <c r="D375" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E375" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -7183,10 +7204,10 @@
         <v>31</v>
       </c>
       <c r="D376" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E376" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -7200,10 +7221,10 @@
         <v>32</v>
       </c>
       <c r="D377" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E377" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -7217,10 +7238,10 @@
         <v>33</v>
       </c>
       <c r="D378" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E378" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -7237,7 +7258,7 @@
         <v>50</v>
       </c>
       <c r="E379" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -7254,7 +7275,7 @@
         <v>50</v>
       </c>
       <c r="E380" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -7268,10 +7289,10 @@
         <v>36</v>
       </c>
       <c r="D381" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E381" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -7285,10 +7306,10 @@
         <v>37</v>
       </c>
       <c r="D382" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E382" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -7302,10 +7323,10 @@
         <v>38</v>
       </c>
       <c r="D383" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E383" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -7319,10 +7340,10 @@
         <v>39</v>
       </c>
       <c r="D384" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E384" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7339,7 +7360,7 @@
         <v>50</v>
       </c>
       <c r="E385" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7353,10 +7374,10 @@
         <v>41</v>
       </c>
       <c r="D386" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E386" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -7373,7 +7394,7 @@
         <v>49</v>
       </c>
       <c r="E387" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -7387,10 +7408,10 @@
         <v>43</v>
       </c>
       <c r="D388" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E388" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -7404,10 +7425,10 @@
         <v>44</v>
       </c>
       <c r="D389" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E389" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -7424,7 +7445,7 @@
         <v>48</v>
       </c>
       <c r="E390" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7441,7 +7462,7 @@
         <v>50</v>
       </c>
       <c r="E391" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7458,7 +7479,7 @@
         <v>50</v>
       </c>
       <c r="E392" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7475,7 +7496,7 @@
         <v>48</v>
       </c>
       <c r="E393" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7492,7 +7513,7 @@
         <v>49</v>
       </c>
       <c r="E394" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -7509,7 +7530,7 @@
         <v>50</v>
       </c>
       <c r="E395" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7526,7 +7547,7 @@
         <v>50</v>
       </c>
       <c r="E396" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -7540,10 +7561,10 @@
         <v>29</v>
       </c>
       <c r="D397" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E397" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7557,10 +7578,10 @@
         <v>30</v>
       </c>
       <c r="D398" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E398" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7577,7 +7598,7 @@
         <v>50</v>
       </c>
       <c r="E399" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7591,10 +7612,10 @@
         <v>32</v>
       </c>
       <c r="D400" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E400" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7608,10 +7629,10 @@
         <v>33</v>
       </c>
       <c r="D401" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E401" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7628,7 +7649,7 @@
         <v>50</v>
       </c>
       <c r="E402" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7642,10 +7663,10 @@
         <v>35</v>
       </c>
       <c r="D403" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E403" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7659,10 +7680,10 @@
         <v>36</v>
       </c>
       <c r="D404" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E404" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7676,10 +7697,10 @@
         <v>37</v>
       </c>
       <c r="D405" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E405" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7696,7 +7717,7 @@
         <v>50</v>
       </c>
       <c r="E406" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7713,7 +7734,7 @@
         <v>48</v>
       </c>
       <c r="E407" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7727,10 +7748,10 @@
         <v>40</v>
       </c>
       <c r="D408" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E408" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7744,10 +7765,10 @@
         <v>41</v>
       </c>
       <c r="D409" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E409" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -7764,7 +7785,7 @@
         <v>49</v>
       </c>
       <c r="E410" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7778,10 +7799,10 @@
         <v>43</v>
       </c>
       <c r="D411" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E411" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7795,10 +7816,10 @@
         <v>44</v>
       </c>
       <c r="D412" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E412" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7815,7 +7836,7 @@
         <v>48</v>
       </c>
       <c r="E413" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7832,7 +7853,7 @@
         <v>50</v>
       </c>
       <c r="E414" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7846,10 +7867,10 @@
         <v>47</v>
       </c>
       <c r="D415" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E415" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7866,7 +7887,7 @@
         <v>48</v>
       </c>
       <c r="E416" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7883,7 +7904,7 @@
         <v>49</v>
       </c>
       <c r="E417" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7900,7 +7921,7 @@
         <v>50</v>
       </c>
       <c r="E418" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7914,7 +7935,10 @@
         <v>28</v>
       </c>
       <c r="D419" t="s">
-        <v>63</v>
+        <v>51</v>
+      </c>
+      <c r="E419" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7928,10 +7952,10 @@
         <v>29</v>
       </c>
       <c r="D420" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E420" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7945,10 +7969,10 @@
         <v>30</v>
       </c>
       <c r="D421" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E421" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7965,7 +7989,7 @@
         <v>50</v>
       </c>
       <c r="E422" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7979,10 +8003,10 @@
         <v>32</v>
       </c>
       <c r="D423" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E423" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7999,7 +8023,7 @@
         <v>50</v>
       </c>
       <c r="E424" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -8013,10 +8037,10 @@
         <v>34</v>
       </c>
       <c r="D425" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E425" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -8033,7 +8057,7 @@
         <v>50</v>
       </c>
       <c r="E426" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -8047,10 +8071,10 @@
         <v>36</v>
       </c>
       <c r="D427" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E427" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -8067,7 +8091,7 @@
         <v>50</v>
       </c>
       <c r="E428" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -8084,7 +8108,7 @@
         <v>50</v>
       </c>
       <c r="E429" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -8101,7 +8125,7 @@
         <v>48</v>
       </c>
       <c r="E430" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -8115,10 +8139,10 @@
         <v>40</v>
       </c>
       <c r="D431" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E431" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -8132,10 +8156,10 @@
         <v>41</v>
       </c>
       <c r="D432" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E432" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -8152,7 +8176,7 @@
         <v>49</v>
       </c>
       <c r="E433" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -8166,10 +8190,10 @@
         <v>43</v>
       </c>
       <c r="D434" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E434" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -8183,10 +8207,10 @@
         <v>44</v>
       </c>
       <c r="D435" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E435" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -8203,7 +8227,7 @@
         <v>48</v>
       </c>
       <c r="E436" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -8220,7 +8244,7 @@
         <v>50</v>
       </c>
       <c r="E437" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -8234,10 +8258,10 @@
         <v>47</v>
       </c>
       <c r="D438" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E438" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -8254,7 +8278,7 @@
         <v>48</v>
       </c>
       <c r="E439" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -8268,10 +8292,10 @@
         <v>26</v>
       </c>
       <c r="D440" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E440" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -8288,7 +8312,7 @@
         <v>50</v>
       </c>
       <c r="E441" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -8302,10 +8326,10 @@
         <v>28</v>
       </c>
       <c r="D442" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E442" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -8319,10 +8343,10 @@
         <v>29</v>
       </c>
       <c r="D443" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E443" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -8336,10 +8360,10 @@
         <v>30</v>
       </c>
       <c r="D444" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E444" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -8356,7 +8380,7 @@
         <v>50</v>
       </c>
       <c r="E445" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -8370,7 +8394,10 @@
         <v>32</v>
       </c>
       <c r="D446" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="E446" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -8384,10 +8411,10 @@
         <v>33</v>
       </c>
       <c r="D447" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E447" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -8404,7 +8431,7 @@
         <v>50</v>
       </c>
       <c r="E448" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -8421,7 +8448,7 @@
         <v>50</v>
       </c>
       <c r="E449" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -8435,10 +8462,10 @@
         <v>36</v>
       </c>
       <c r="D450" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E450" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -8452,10 +8479,10 @@
         <v>37</v>
       </c>
       <c r="D451" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E451" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -8469,7 +8496,10 @@
         <v>38</v>
       </c>
       <c r="D452" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="E452" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8483,10 +8513,10 @@
         <v>39</v>
       </c>
       <c r="D453" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E453" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8500,10 +8530,10 @@
         <v>40</v>
       </c>
       <c r="D454" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E454" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -8517,10 +8547,10 @@
         <v>41</v>
       </c>
       <c r="D455" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E455" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -8537,7 +8567,7 @@
         <v>49</v>
       </c>
       <c r="E456" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -8551,10 +8581,10 @@
         <v>43</v>
       </c>
       <c r="D457" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E457" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8568,10 +8598,10 @@
         <v>44</v>
       </c>
       <c r="D458" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E458" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -8585,10 +8615,10 @@
         <v>45</v>
       </c>
       <c r="D459" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E459" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -8605,7 +8635,7 @@
         <v>50</v>
       </c>
       <c r="E460" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -8619,10 +8649,10 @@
         <v>47</v>
       </c>
       <c r="D461" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E461" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -8639,7 +8669,7 @@
         <v>48</v>
       </c>
       <c r="E462" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8653,10 +8683,10 @@
         <v>26</v>
       </c>
       <c r="D463" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E463" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8670,10 +8700,10 @@
         <v>27</v>
       </c>
       <c r="D464" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E464" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8690,7 +8720,7 @@
         <v>50</v>
       </c>
       <c r="E465" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -8707,7 +8737,7 @@
         <v>51</v>
       </c>
       <c r="E466" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -8721,10 +8751,10 @@
         <v>30</v>
       </c>
       <c r="D467" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E467" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8741,7 +8771,7 @@
         <v>50</v>
       </c>
       <c r="E468" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8755,10 +8785,10 @@
         <v>32</v>
       </c>
       <c r="D469" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E469" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8772,10 +8802,7 @@
         <v>33</v>
       </c>
       <c r="D470" t="s">
-        <v>50</v>
-      </c>
-      <c r="E470" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8792,7 +8819,7 @@
         <v>50</v>
       </c>
       <c r="E471" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8809,7 +8836,7 @@
         <v>50</v>
       </c>
       <c r="E472" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -8823,10 +8850,10 @@
         <v>36</v>
       </c>
       <c r="D473" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E473" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8840,10 +8867,10 @@
         <v>37</v>
       </c>
       <c r="D474" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E474" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -8860,7 +8887,7 @@
         <v>50</v>
       </c>
       <c r="E475" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8877,7 +8904,7 @@
         <v>48</v>
       </c>
       <c r="E476" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8891,10 +8918,10 @@
         <v>40</v>
       </c>
       <c r="D477" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E477" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8908,10 +8935,10 @@
         <v>41</v>
       </c>
       <c r="D478" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E478" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8928,7 +8955,7 @@
         <v>49</v>
       </c>
       <c r="E479" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -8942,10 +8969,10 @@
         <v>43</v>
       </c>
       <c r="D480" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E480" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8959,10 +8986,10 @@
         <v>44</v>
       </c>
       <c r="D481" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E481" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8979,7 +9006,7 @@
         <v>48</v>
       </c>
       <c r="E482" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8996,7 +9023,7 @@
         <v>50</v>
       </c>
       <c r="E483" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -9013,7 +9040,7 @@
         <v>51</v>
       </c>
       <c r="E484" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Dataframes/phenotypes.xlsx
+++ b/Output/Dataframes/phenotypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="143">
   <si>
     <t>sample_id</t>
   </si>
@@ -28,67 +28,67 @@
     <t>genotype</t>
   </si>
   <si>
-    <t>D402000262</t>
-  </si>
-  <si>
-    <t>D402000264</t>
-  </si>
-  <si>
-    <t>D402007268</t>
-  </si>
-  <si>
-    <t>D402007270</t>
-  </si>
-  <si>
-    <t>D402007274</t>
-  </si>
-  <si>
-    <t>D402007275</t>
-  </si>
-  <si>
-    <t>D402007276</t>
-  </si>
-  <si>
-    <t>D402007278</t>
-  </si>
-  <si>
-    <t>D402007280</t>
-  </si>
-  <si>
-    <t>D402007281</t>
-  </si>
-  <si>
-    <t>D402007287</t>
-  </si>
-  <si>
-    <t>D402007288</t>
-  </si>
-  <si>
-    <t>D402007291</t>
-  </si>
-  <si>
-    <t>D402007295</t>
-  </si>
-  <si>
-    <t>D402007297</t>
-  </si>
-  <si>
-    <t>D402007298</t>
-  </si>
-  <si>
-    <t>D402007315</t>
-  </si>
-  <si>
-    <t>D402007353</t>
-  </si>
-  <si>
-    <t>D402007355</t>
-  </si>
-  <si>
-    <t>D402007361</t>
-  </si>
-  <si>
-    <t>D402007362</t>
+    <t>D402000259</t>
+  </si>
+  <si>
+    <t>D402000265</t>
+  </si>
+  <si>
+    <t>D402007216</t>
+  </si>
+  <si>
+    <t>D402007217</t>
+  </si>
+  <si>
+    <t>D402007228</t>
+  </si>
+  <si>
+    <t>D402007237</t>
+  </si>
+  <si>
+    <t>D402007245</t>
+  </si>
+  <si>
+    <t>D402007247</t>
+  </si>
+  <si>
+    <t>D402007248</t>
+  </si>
+  <si>
+    <t>D402007259</t>
+  </si>
+  <si>
+    <t>D402007279</t>
+  </si>
+  <si>
+    <t>D402007284</t>
+  </si>
+  <si>
+    <t>D402007285</t>
+  </si>
+  <si>
+    <t>D402007290</t>
+  </si>
+  <si>
+    <t>D402007293</t>
+  </si>
+  <si>
+    <t>D402007304</t>
+  </si>
+  <si>
+    <t>D402007305</t>
+  </si>
+  <si>
+    <t>D402007310</t>
+  </si>
+  <si>
+    <t>D402007314</t>
+  </si>
+  <si>
+    <t>D402007363</t>
+  </si>
+  <si>
+    <t>D402007364</t>
   </si>
   <si>
     <t>CACNA1S</t>
@@ -172,6 +172,12 @@
     <t>IM</t>
   </si>
   <si>
+    <t>NM_or_IM</t>
+  </si>
+  <si>
+    <t>NM,IM,IM</t>
+  </si>
+  <si>
     <t>PM</t>
   </si>
   <si>
@@ -184,298 +190,259 @@
     <t>SA</t>
   </si>
   <si>
-    <t>NM_or_IM</t>
-  </si>
-  <si>
-    <t>Not_PM</t>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>FavorableResponseGenotype</t>
   </si>
   <si>
     <t>IA,SA</t>
   </si>
   <si>
-    <t>IM_or_PM</t>
-  </si>
-  <si>
-    <t>FavorableResponseGenotype</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
     <t>IM,NM_or_IM</t>
   </si>
   <si>
-    <t>IA</t>
+    <t>Indeterminate,Indeterminate,Indeterminate,Indeterminate,Indeterminate,Indeterminate,Indeterminate,Indeterminate,Indeterminate,Deficient,Deficient,Deficient,Deficient,Deficient,Deficient</t>
+  </si>
+  <si>
+    <t>Indeterminate,MHS,MHS</t>
+  </si>
+  <si>
+    <t>IM,unknown</t>
   </si>
   <si>
     <t>IM,IM,NM_or_IM,NM_or_IM</t>
   </si>
   <si>
-    <t>IA,IA_or_SA</t>
-  </si>
-  <si>
-    <t>NM,IM,IM</t>
-  </si>
-  <si>
-    <t>Indeterminate,MHS,MHS</t>
-  </si>
-  <si>
-    <t>IM,PM</t>
-  </si>
-  <si>
-    <t>Indeterminate,Deficient,Deficient,Deficient</t>
-  </si>
-  <si>
-    <t>IM,PM,IM_or_PM</t>
-  </si>
-  <si>
-    <t>RM</t>
-  </si>
-  <si>
-    <t>NM,IM,PM</t>
+    <t>MHS</t>
   </si>
   <si>
     <t>Indeterminate,Indeterminate,Deficient</t>
   </si>
   <si>
+    <t>Indeterminate,MHS,MHS,MHS,MHS,MHS</t>
+  </si>
+  <si>
     <t>NM,NM_or_IM</t>
   </si>
   <si>
     <t>WT/WT</t>
   </si>
   <si>
+    <t>*1F/*1F</t>
+  </si>
+  <si>
+    <t>*1/*1</t>
+  </si>
+  <si>
+    <t>*1/*6</t>
+  </si>
+  <si>
+    <t>*1A/*3</t>
+  </si>
+  <si>
+    <t>*1/*2</t>
+  </si>
+  <si>
+    <t>*1/*1,*1/*27,*27/*27</t>
+  </si>
+  <si>
+    <t>*1B/*1B</t>
+  </si>
+  <si>
+    <t>*3/*3</t>
+  </si>
+  <si>
+    <t>c.=/c.=</t>
+  </si>
+  <si>
+    <t>B/Null</t>
+  </si>
+  <si>
+    <t>*B/*C</t>
+  </si>
+  <si>
+    <t>rs12979860T/rs12979860T</t>
+  </si>
+  <si>
+    <t>Null/m.=</t>
+  </si>
+  <si>
+    <t>*4/*4</t>
+  </si>
+  <si>
+    <t>*5/*5</t>
+  </si>
+  <si>
     <t>*1A/*1F</t>
   </si>
   <si>
-    <t>*1/*1H</t>
-  </si>
-  <si>
-    <t>*1/*6</t>
+    <t>*1/*4</t>
+  </si>
+  <si>
+    <t>*1A/*1C</t>
+  </si>
+  <si>
+    <t>*1/*4B</t>
+  </si>
+  <si>
+    <t>*2/*4</t>
+  </si>
+  <si>
+    <t>*1B/*5A+7A+1B</t>
+  </si>
+  <si>
+    <t>*1/*3</t>
+  </si>
+  <si>
+    <t>B/Serres</t>
+  </si>
+  <si>
+    <t>*A/*A</t>
+  </si>
+  <si>
+    <t>rs12979860C/rs12979860T</t>
+  </si>
+  <si>
+    <t>*1/*28+60+80+93</t>
+  </si>
+  <si>
+    <t>F508delCTT/WT</t>
   </si>
   <si>
     <t>*1A/*1A</t>
   </si>
   <si>
-    <t>*1/*1</t>
-  </si>
-  <si>
-    <t>*1/*4B</t>
+    <t>*1/*10</t>
+  </si>
+  <si>
+    <t>B/B</t>
+  </si>
+  <si>
+    <t>*4/*5</t>
+  </si>
+  <si>
+    <t>*60/*60</t>
+  </si>
+  <si>
+    <t>*A/*B</t>
+  </si>
+  <si>
+    <t>*28+60+80+93/*28+60+80+93</t>
+  </si>
+  <si>
+    <t>*2/*2</t>
+  </si>
+  <si>
+    <t>*4/*6</t>
+  </si>
+  <si>
+    <t>*1A/*7A+1B,*1B/*7A</t>
+  </si>
+  <si>
+    <t>rs12979860C/rs12979860C</t>
+  </si>
+  <si>
+    <t>*28+60+80+93/*60</t>
+  </si>
+  <si>
+    <t>*1/*22</t>
+  </si>
+  <si>
+    <t>c.1129-5923C&gt;G/c.=</t>
+  </si>
+  <si>
+    <t>*4/*5E,*5/*6</t>
+  </si>
+  <si>
+    <t>*1/*60</t>
+  </si>
+  <si>
+    <t>*1/*2+3,*2/*3</t>
+  </si>
+  <si>
+    <t>B/B,Val77Leu/B,B/Roubaix,B/Serres,B/Nashville,Val77Leu/Val77Leu,Val77Leu/Roubaix,Val77Leu/Serres,Val77Leu/Nashville,Roubaix/Roubaix,Roubaix/Serres,Nashville/Roubaix,Serres/Serres,Nashville/Serres,Nashville/Nashville</t>
+  </si>
+  <si>
+    <t>WT/WT,c.6487C&gt;T/WT,c.6487C&gt;T/c.6487C&gt;T</t>
+  </si>
+  <si>
+    <t>*1/*28+60+80,*28/*60+80</t>
+  </si>
+  <si>
+    <t>*6/*6</t>
+  </si>
+  <si>
+    <t>*1/*9</t>
+  </si>
+  <si>
+    <t>*4B/*4B</t>
   </si>
   <si>
     <t>*4/*35</t>
   </si>
   <si>
-    <t>*1B/*1B</t>
-  </si>
-  <si>
-    <t>*3/*3</t>
-  </si>
-  <si>
-    <t>c.1129-5923C&gt;G/c.=</t>
-  </si>
-  <si>
-    <t>B/Null</t>
-  </si>
-  <si>
-    <t>*A/*A</t>
-  </si>
-  <si>
-    <t>rs12979860C/rs12979860T</t>
-  </si>
-  <si>
-    <t>Null/m.=</t>
-  </si>
-  <si>
-    <t>*4/*4</t>
-  </si>
-  <si>
-    <t>*6/*6</t>
-  </si>
-  <si>
-    <t>*1/*60</t>
-  </si>
-  <si>
-    <t>*1F/*1F</t>
-  </si>
-  <si>
-    <t>*1A/*1C</t>
-  </si>
-  <si>
-    <t>*1/*2,*1/*35</t>
-  </si>
-  <si>
-    <t>*1/*22</t>
-  </si>
-  <si>
-    <t>c.=/c.=</t>
-  </si>
-  <si>
-    <t>B/B</t>
-  </si>
-  <si>
-    <t>*4/*5S,*5/*7</t>
-  </si>
-  <si>
-    <t>*1/*28+60+80+93</t>
-  </si>
-  <si>
-    <t>*6/*15</t>
-  </si>
-  <si>
-    <t>*1A/*3</t>
-  </si>
-  <si>
-    <t>*1/*2</t>
-  </si>
-  <si>
-    <t>*2/*2</t>
-  </si>
-  <si>
-    <t>*1A/*7A+1B,*1B/*7A</t>
-  </si>
-  <si>
-    <t>*1/*3</t>
+    <t>*1H/*9</t>
+  </si>
+  <si>
+    <t>*2/*33</t>
   </si>
   <si>
     <t>*2+3/*3</t>
   </si>
   <si>
-    <t>*A/*B</t>
-  </si>
-  <si>
-    <t>rs12979860C/rs12979860C</t>
-  </si>
-  <si>
-    <t>*5/*5</t>
-  </si>
-  <si>
-    <t>*4B/*4B</t>
-  </si>
-  <si>
-    <t>*1/*2+3,*2/*3</t>
-  </si>
-  <si>
-    <t>*4/*5</t>
-  </si>
-  <si>
-    <t>*1/*9</t>
+    <t>*B/*B</t>
+  </si>
+  <si>
+    <t>*1/*5</t>
+  </si>
+  <si>
+    <t>*A/*C</t>
+  </si>
+  <si>
+    <t>*1/*3,*1/*2+3,*2/*3,*2/*2+3</t>
   </si>
   <si>
     <t>*1A/*4+1C</t>
   </si>
   <si>
-    <t>*1/*4</t>
-  </si>
-  <si>
-    <t>*A/*C</t>
-  </si>
-  <si>
-    <t>*1/*12</t>
-  </si>
-  <si>
-    <t>*1A/*4+7A+1B,*1B/*4+7A,*4/*7A+1B</t>
-  </si>
-  <si>
-    <t>*1/*3,*1/*2+3,*2/*3,*2/*2+3</t>
-  </si>
-  <si>
-    <t>*4/*11B,*11C/*30</t>
-  </si>
-  <si>
-    <t>*1/*1,*1/*27,*27/*27</t>
-  </si>
-  <si>
-    <t>*B/*B</t>
-  </si>
-  <si>
-    <t>rs12979860T/rs12979860T</t>
-  </si>
-  <si>
-    <t>*4/*5E,*5/*6</t>
-  </si>
-  <si>
-    <t>WT/WT,c.6487C&gt;T/WT,c.6487C&gt;T/c.6487C&gt;T</t>
-  </si>
-  <si>
-    <t>*28+60+80+93/*28+60+80+93</t>
-  </si>
-  <si>
-    <t>*4/*14</t>
-  </si>
-  <si>
-    <t>*4/*6</t>
-  </si>
-  <si>
-    <t>*1F/*1L</t>
+    <t>c.1840C&gt;T/WT</t>
+  </si>
+  <si>
+    <t>*2/*4B</t>
+  </si>
+  <si>
+    <t>*3/*22</t>
   </si>
   <si>
     <t>*1/*14</t>
   </si>
   <si>
-    <t>*6/*13</t>
-  </si>
-  <si>
-    <t>*B/*C</t>
-  </si>
-  <si>
-    <t>*1/*33</t>
-  </si>
-  <si>
-    <t>*1B/*5A+7A+1B</t>
-  </si>
-  <si>
-    <t>*1/*4B,*4B/*27</t>
-  </si>
-  <si>
-    <t>*4/*31</t>
-  </si>
-  <si>
-    <t>B/Naone,Naone/Serres,Madrid/Naone,Naone/Nashville</t>
-  </si>
-  <si>
-    <t>*1/*4B,*4B/*27,*4B/*34</t>
+    <t>*3/*3,*2+3/*3,*2+3/*2+3</t>
   </si>
   <si>
     <t>*1B/*7B</t>
   </si>
   <si>
-    <t>*1/*1xN</t>
-  </si>
-  <si>
-    <t>*1/*28</t>
-  </si>
-  <si>
-    <t>*1/*2,*2/*27</t>
-  </si>
-  <si>
-    <t>*2/*2,*2/*31,*31/*31</t>
-  </si>
-  <si>
     <t>B/B,B/Nashville,Nashville/Nashville</t>
   </si>
   <si>
-    <t>*60/*60</t>
-  </si>
-  <si>
-    <t>*2/*4B</t>
-  </si>
-  <si>
-    <t>*1/*5</t>
-  </si>
-  <si>
-    <t>*22/*22</t>
-  </si>
-  <si>
-    <t>*2+3/*2+3</t>
-  </si>
-  <si>
-    <t>*28+60+80/*28+60+80+93</t>
-  </si>
-  <si>
-    <t>*2/*4</t>
+    <t>WT/WT,c.6487C&gt;T/WT,c.14545G&gt;A/WT,c.6487C&gt;T/c.6487C&gt;T,c.6487C&gt;T/c.14545G&gt;A,c.14545G&gt;A/c.14545G&gt;A</t>
   </si>
   <si>
     <t>*1A/*1F,*1F/*8</t>
+  </si>
+  <si>
+    <t>*2/*35</t>
   </si>
 </sst>
 </file>
@@ -867,7 +834,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -884,7 +851,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -901,7 +868,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -915,10 +882,10 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -935,7 +902,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -949,10 +916,10 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -966,10 +933,10 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -983,10 +950,10 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1000,10 +967,10 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1020,7 +987,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1037,7 +1004,7 @@
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1051,10 +1018,10 @@
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1071,7 +1038,7 @@
         <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1085,10 +1052,10 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1105,7 +1072,7 @@
         <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1119,10 +1086,10 @@
         <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1136,10 +1103,10 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1156,7 +1123,7 @@
         <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1170,10 +1137,10 @@
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1187,10 +1154,10 @@
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1207,7 +1174,7 @@
         <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1224,7 +1191,7 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1241,7 +1208,7 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1258,7 +1225,7 @@
         <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1275,7 +1242,7 @@
         <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1292,7 +1259,7 @@
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1309,7 +1276,7 @@
         <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1323,10 +1290,10 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1340,10 +1307,10 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1360,7 +1327,7 @@
         <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1377,7 +1344,7 @@
         <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1391,10 +1358,10 @@
         <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1408,10 +1375,10 @@
         <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1425,10 +1392,10 @@
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1442,10 +1409,10 @@
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1459,10 +1426,10 @@
         <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1479,7 +1446,7 @@
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1496,7 +1463,7 @@
         <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1513,7 +1480,7 @@
         <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1527,10 +1494,10 @@
         <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1547,7 +1514,7 @@
         <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1561,10 +1528,10 @@
         <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E43" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1578,10 +1545,10 @@
         <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1598,7 +1565,7 @@
         <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1615,7 +1582,7 @@
         <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1632,7 +1599,7 @@
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1649,7 +1616,7 @@
         <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1663,10 +1630,10 @@
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1683,7 +1650,7 @@
         <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1700,7 +1667,7 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1714,10 +1681,10 @@
         <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1731,10 +1698,10 @@
         <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1748,10 +1715,10 @@
         <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1765,10 +1732,10 @@
         <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E55" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1785,7 +1752,7 @@
         <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1802,7 +1769,7 @@
         <v>50</v>
       </c>
       <c r="E57" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1819,7 +1786,7 @@
         <v>50</v>
       </c>
       <c r="E58" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1833,10 +1800,10 @@
         <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E59" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1850,10 +1817,10 @@
         <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E60" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1870,7 +1837,7 @@
         <v>50</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1887,7 +1854,7 @@
         <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1901,10 +1868,10 @@
         <v>40</v>
       </c>
       <c r="D63" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E63" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1918,10 +1885,10 @@
         <v>41</v>
       </c>
       <c r="D64" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1938,7 +1905,7 @@
         <v>49</v>
       </c>
       <c r="E65" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1952,10 +1919,10 @@
         <v>43</v>
       </c>
       <c r="D66" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E66" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1969,10 +1936,10 @@
         <v>44</v>
       </c>
       <c r="D67" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E67" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1989,7 +1956,7 @@
         <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2006,7 +1973,7 @@
         <v>50</v>
       </c>
       <c r="E69" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2020,10 +1987,10 @@
         <v>47</v>
       </c>
       <c r="D70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E70" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2040,7 +2007,7 @@
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2057,7 +2024,7 @@
         <v>49</v>
       </c>
       <c r="E72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2074,7 +2041,7 @@
         <v>50</v>
       </c>
       <c r="E73" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2088,7 +2055,10 @@
         <v>28</v>
       </c>
       <c r="D74" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="E74" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2105,7 +2075,7 @@
         <v>51</v>
       </c>
       <c r="E75" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2122,7 +2092,7 @@
         <v>50</v>
       </c>
       <c r="E76" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2139,7 +2109,7 @@
         <v>50</v>
       </c>
       <c r="E77" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2153,10 +2123,10 @@
         <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E78" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2173,7 +2143,7 @@
         <v>50</v>
       </c>
       <c r="E79" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2190,7 +2160,7 @@
         <v>50</v>
       </c>
       <c r="E80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2207,7 +2177,7 @@
         <v>50</v>
       </c>
       <c r="E81" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2221,10 +2191,10 @@
         <v>36</v>
       </c>
       <c r="D82" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E82" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2238,10 +2208,10 @@
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E83" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2258,7 +2228,7 @@
         <v>50</v>
       </c>
       <c r="E84" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2275,7 +2245,7 @@
         <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2289,10 +2259,10 @@
         <v>40</v>
       </c>
       <c r="D86" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E86" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2306,10 +2276,10 @@
         <v>41</v>
       </c>
       <c r="D87" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E87" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2326,7 +2296,7 @@
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2340,10 +2310,10 @@
         <v>43</v>
       </c>
       <c r="D89" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E89" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2357,10 +2327,10 @@
         <v>44</v>
       </c>
       <c r="D90" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E90" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2377,7 +2347,7 @@
         <v>48</v>
       </c>
       <c r="E91" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2394,7 +2364,7 @@
         <v>50</v>
       </c>
       <c r="E92" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2408,10 +2378,10 @@
         <v>47</v>
       </c>
       <c r="D93" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E93" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2428,7 +2398,7 @@
         <v>48</v>
       </c>
       <c r="E94" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2445,7 +2415,7 @@
         <v>49</v>
       </c>
       <c r="E95" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2462,7 +2432,7 @@
         <v>50</v>
       </c>
       <c r="E96" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2476,10 +2446,10 @@
         <v>28</v>
       </c>
       <c r="D97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E97" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2493,10 +2463,10 @@
         <v>29</v>
       </c>
       <c r="D98" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E98" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2510,10 +2480,10 @@
         <v>30</v>
       </c>
       <c r="D99" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E99" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2530,7 +2500,7 @@
         <v>50</v>
       </c>
       <c r="E100" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2547,7 +2517,7 @@
         <v>50</v>
       </c>
       <c r="E101" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2561,10 +2531,10 @@
         <v>33</v>
       </c>
       <c r="D102" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E102" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2581,7 +2551,7 @@
         <v>50</v>
       </c>
       <c r="E103" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2598,7 +2568,7 @@
         <v>50</v>
       </c>
       <c r="E104" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2612,10 +2582,10 @@
         <v>36</v>
       </c>
       <c r="D105" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E105" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2632,7 +2602,7 @@
         <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2649,7 +2619,7 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2666,7 +2636,7 @@
         <v>48</v>
       </c>
       <c r="E108" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2680,10 +2650,10 @@
         <v>40</v>
       </c>
       <c r="D109" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E109" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2697,10 +2667,10 @@
         <v>41</v>
       </c>
       <c r="D110" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E110" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2717,7 +2687,7 @@
         <v>49</v>
       </c>
       <c r="E111" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2731,10 +2701,10 @@
         <v>43</v>
       </c>
       <c r="D112" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E112" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2748,10 +2718,10 @@
         <v>44</v>
       </c>
       <c r="D113" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E113" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2768,7 +2738,7 @@
         <v>48</v>
       </c>
       <c r="E114" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2785,7 +2755,7 @@
         <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2802,7 +2772,7 @@
         <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2819,7 +2789,7 @@
         <v>48</v>
       </c>
       <c r="E117" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2836,7 +2806,7 @@
         <v>49</v>
       </c>
       <c r="E118" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2853,7 +2823,7 @@
         <v>50</v>
       </c>
       <c r="E119" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2867,10 +2837,10 @@
         <v>28</v>
       </c>
       <c r="D120" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E120" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2887,7 +2857,7 @@
         <v>50</v>
       </c>
       <c r="E121" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2904,7 +2874,7 @@
         <v>50</v>
       </c>
       <c r="E122" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2918,10 +2888,10 @@
         <v>31</v>
       </c>
       <c r="D123" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E123" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2935,10 +2905,10 @@
         <v>32</v>
       </c>
       <c r="D124" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E124" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2955,7 +2925,7 @@
         <v>50</v>
       </c>
       <c r="E125" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2972,7 +2942,7 @@
         <v>50</v>
       </c>
       <c r="E126" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2989,7 +2959,7 @@
         <v>50</v>
       </c>
       <c r="E127" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3003,10 +2973,10 @@
         <v>36</v>
       </c>
       <c r="D128" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E128" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3020,10 +2990,10 @@
         <v>37</v>
       </c>
       <c r="D129" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E129" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3040,7 +3010,7 @@
         <v>50</v>
       </c>
       <c r="E130" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3057,7 +3027,7 @@
         <v>48</v>
       </c>
       <c r="E131" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3071,10 +3041,10 @@
         <v>40</v>
       </c>
       <c r="D132" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E132" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3088,10 +3058,10 @@
         <v>41</v>
       </c>
       <c r="D133" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E133" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3108,7 +3078,7 @@
         <v>49</v>
       </c>
       <c r="E134" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3122,10 +3092,10 @@
         <v>43</v>
       </c>
       <c r="D135" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E135" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3139,10 +3109,10 @@
         <v>44</v>
       </c>
       <c r="D136" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E136" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3159,7 +3129,7 @@
         <v>48</v>
       </c>
       <c r="E137" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3176,7 +3146,7 @@
         <v>50</v>
       </c>
       <c r="E138" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3193,7 +3163,7 @@
         <v>51</v>
       </c>
       <c r="E139" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3210,7 +3180,7 @@
         <v>48</v>
       </c>
       <c r="E140" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3227,7 +3197,7 @@
         <v>49</v>
       </c>
       <c r="E141" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3244,7 +3214,7 @@
         <v>50</v>
       </c>
       <c r="E142" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3258,10 +3228,10 @@
         <v>28</v>
       </c>
       <c r="D143" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E143" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3275,10 +3245,10 @@
         <v>29</v>
       </c>
       <c r="D144" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E144" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3295,7 +3265,7 @@
         <v>50</v>
       </c>
       <c r="E145" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3309,10 +3279,10 @@
         <v>31</v>
       </c>
       <c r="D146" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E146" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3326,10 +3296,10 @@
         <v>32</v>
       </c>
       <c r="D147" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E147" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3343,7 +3313,10 @@
         <v>33</v>
       </c>
       <c r="D148" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="E148" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3360,7 +3333,7 @@
         <v>50</v>
       </c>
       <c r="E149" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3374,10 +3347,10 @@
         <v>35</v>
       </c>
       <c r="D150" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E150" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3391,10 +3364,10 @@
         <v>36</v>
       </c>
       <c r="D151" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E151" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3411,7 +3384,7 @@
         <v>50</v>
       </c>
       <c r="E152" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3425,7 +3398,10 @@
         <v>38</v>
       </c>
       <c r="D153" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="E153" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3442,7 +3418,7 @@
         <v>48</v>
       </c>
       <c r="E154" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3456,10 +3432,10 @@
         <v>40</v>
       </c>
       <c r="D155" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E155" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3473,10 +3449,10 @@
         <v>41</v>
       </c>
       <c r="D156" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E156" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3493,7 +3469,7 @@
         <v>49</v>
       </c>
       <c r="E157" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3507,10 +3483,10 @@
         <v>43</v>
       </c>
       <c r="D158" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E158" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3524,10 +3500,10 @@
         <v>44</v>
       </c>
       <c r="D159" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E159" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3541,10 +3517,10 @@
         <v>45</v>
       </c>
       <c r="D160" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E160" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3561,7 +3537,7 @@
         <v>50</v>
       </c>
       <c r="E161" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3575,10 +3551,10 @@
         <v>47</v>
       </c>
       <c r="D162" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E162" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3595,7 +3571,7 @@
         <v>48</v>
       </c>
       <c r="E163" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3612,7 +3588,7 @@
         <v>49</v>
       </c>
       <c r="E164" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3629,7 +3605,7 @@
         <v>50</v>
       </c>
       <c r="E165" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3643,10 +3619,10 @@
         <v>28</v>
       </c>
       <c r="D166" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E166" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3660,10 +3636,10 @@
         <v>29</v>
       </c>
       <c r="D167" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E167" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3677,10 +3653,10 @@
         <v>30</v>
       </c>
       <c r="D168" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E168" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3694,10 +3670,7 @@
         <v>31</v>
       </c>
       <c r="D169" t="s">
-        <v>50</v>
-      </c>
-      <c r="E169" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3714,7 +3687,7 @@
         <v>50</v>
       </c>
       <c r="E170" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3728,10 +3701,10 @@
         <v>33</v>
       </c>
       <c r="D171" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E171" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3748,7 +3721,7 @@
         <v>50</v>
       </c>
       <c r="E172" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3765,7 +3738,7 @@
         <v>50</v>
       </c>
       <c r="E173" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3779,10 +3752,10 @@
         <v>36</v>
       </c>
       <c r="D174" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E174" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3796,10 +3769,10 @@
         <v>37</v>
       </c>
       <c r="D175" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E175" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3816,7 +3789,7 @@
         <v>50</v>
       </c>
       <c r="E176" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3830,10 +3803,10 @@
         <v>39</v>
       </c>
       <c r="D177" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E177" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3847,10 +3820,10 @@
         <v>40</v>
       </c>
       <c r="D178" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E178" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3864,10 +3837,10 @@
         <v>41</v>
       </c>
       <c r="D179" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E179" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3884,7 +3857,7 @@
         <v>49</v>
       </c>
       <c r="E180" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3898,10 +3871,10 @@
         <v>43</v>
       </c>
       <c r="D181" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E181" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3915,10 +3888,10 @@
         <v>44</v>
       </c>
       <c r="D182" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E182" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3932,10 +3905,10 @@
         <v>45</v>
       </c>
       <c r="D183" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E183" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3952,7 +3925,7 @@
         <v>50</v>
       </c>
       <c r="E184" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3966,10 +3939,10 @@
         <v>47</v>
       </c>
       <c r="D185" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E185" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3986,7 +3959,7 @@
         <v>48</v>
       </c>
       <c r="E186" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4003,7 +3976,7 @@
         <v>49</v>
       </c>
       <c r="E187" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4020,7 +3993,7 @@
         <v>50</v>
       </c>
       <c r="E188" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4037,7 +4010,7 @@
         <v>50</v>
       </c>
       <c r="E189" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4051,10 +4024,10 @@
         <v>29</v>
       </c>
       <c r="D190" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E190" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4071,7 +4044,7 @@
         <v>50</v>
       </c>
       <c r="E191" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4085,10 +4058,10 @@
         <v>31</v>
       </c>
       <c r="D192" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E192" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4105,7 +4078,7 @@
         <v>50</v>
       </c>
       <c r="E193" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4119,10 +4092,10 @@
         <v>33</v>
       </c>
       <c r="D194" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E194" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4139,7 +4112,7 @@
         <v>50</v>
       </c>
       <c r="E195" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4153,10 +4126,10 @@
         <v>35</v>
       </c>
       <c r="D196" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E196" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4170,10 +4143,10 @@
         <v>36</v>
       </c>
       <c r="D197" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E197" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4187,10 +4160,10 @@
         <v>37</v>
       </c>
       <c r="D198" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E198" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4207,7 +4180,7 @@
         <v>50</v>
       </c>
       <c r="E199" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4224,7 +4197,7 @@
         <v>48</v>
       </c>
       <c r="E200" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4238,10 +4211,10 @@
         <v>40</v>
       </c>
       <c r="D201" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E201" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4255,10 +4228,10 @@
         <v>41</v>
       </c>
       <c r="D202" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E202" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4275,7 +4248,7 @@
         <v>49</v>
       </c>
       <c r="E203" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4289,10 +4262,10 @@
         <v>43</v>
       </c>
       <c r="D204" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E204" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4306,10 +4279,10 @@
         <v>44</v>
       </c>
       <c r="D205" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E205" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4326,7 +4299,7 @@
         <v>48</v>
       </c>
       <c r="E206" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4343,7 +4316,7 @@
         <v>50</v>
       </c>
       <c r="E207" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4357,10 +4330,10 @@
         <v>47</v>
       </c>
       <c r="D208" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E208" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4377,7 +4350,7 @@
         <v>48</v>
       </c>
       <c r="E209" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4394,7 +4367,7 @@
         <v>49</v>
       </c>
       <c r="E210" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4408,10 +4381,10 @@
         <v>27</v>
       </c>
       <c r="D211" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E211" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4425,10 +4398,10 @@
         <v>28</v>
       </c>
       <c r="D212" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E212" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4445,7 +4418,7 @@
         <v>50</v>
       </c>
       <c r="E213" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4462,7 +4435,7 @@
         <v>50</v>
       </c>
       <c r="E214" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4479,7 +4452,7 @@
         <v>50</v>
       </c>
       <c r="E215" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4493,10 +4466,10 @@
         <v>32</v>
       </c>
       <c r="D216" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E216" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4510,10 +4483,10 @@
         <v>33</v>
       </c>
       <c r="D217" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E217" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4530,7 +4503,7 @@
         <v>50</v>
       </c>
       <c r="E218" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4547,7 +4520,7 @@
         <v>50</v>
       </c>
       <c r="E219" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4561,10 +4534,10 @@
         <v>36</v>
       </c>
       <c r="D220" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E220" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4578,10 +4551,10 @@
         <v>37</v>
       </c>
       <c r="D221" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E221" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4598,7 +4571,7 @@
         <v>50</v>
       </c>
       <c r="E222" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4615,7 +4588,7 @@
         <v>48</v>
       </c>
       <c r="E223" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4632,7 +4605,7 @@
         <v>50</v>
       </c>
       <c r="E224" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4646,10 +4619,10 @@
         <v>41</v>
       </c>
       <c r="D225" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E225" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4666,7 +4639,7 @@
         <v>49</v>
       </c>
       <c r="E226" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4680,10 +4653,10 @@
         <v>43</v>
       </c>
       <c r="D227" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E227" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4697,10 +4670,10 @@
         <v>44</v>
       </c>
       <c r="D228" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E228" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4717,7 +4690,7 @@
         <v>48</v>
       </c>
       <c r="E229" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4734,7 +4707,7 @@
         <v>50</v>
       </c>
       <c r="E230" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4748,10 +4721,10 @@
         <v>47</v>
       </c>
       <c r="D231" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E231" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4768,7 +4741,7 @@
         <v>48</v>
       </c>
       <c r="E232" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4785,7 +4758,7 @@
         <v>49</v>
       </c>
       <c r="E233" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4802,7 +4775,7 @@
         <v>50</v>
       </c>
       <c r="E234" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4816,10 +4789,10 @@
         <v>28</v>
       </c>
       <c r="D235" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E235" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4833,10 +4806,10 @@
         <v>29</v>
       </c>
       <c r="D236" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E236" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4853,7 +4826,7 @@
         <v>50</v>
       </c>
       <c r="E237" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4870,7 +4843,7 @@
         <v>51</v>
       </c>
       <c r="E238" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4887,7 +4860,7 @@
         <v>51</v>
       </c>
       <c r="E239" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4904,7 +4877,7 @@
         <v>50</v>
       </c>
       <c r="E240" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4921,7 +4894,7 @@
         <v>50</v>
       </c>
       <c r="E241" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4938,7 +4911,7 @@
         <v>50</v>
       </c>
       <c r="E242" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4952,10 +4925,10 @@
         <v>36</v>
       </c>
       <c r="D243" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E243" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4969,10 +4942,10 @@
         <v>37</v>
       </c>
       <c r="D244" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E244" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4986,7 +4959,10 @@
         <v>38</v>
       </c>
       <c r="D245" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="E245" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5003,7 +4979,7 @@
         <v>48</v>
       </c>
       <c r="E246" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5017,10 +4993,10 @@
         <v>40</v>
       </c>
       <c r="D247" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E247" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5034,10 +5010,10 @@
         <v>41</v>
       </c>
       <c r="D248" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E248" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5054,7 +5030,7 @@
         <v>49</v>
       </c>
       <c r="E249" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5068,10 +5044,10 @@
         <v>43</v>
       </c>
       <c r="D250" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E250" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5085,10 +5061,10 @@
         <v>44</v>
       </c>
       <c r="D251" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E251" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5105,7 +5081,7 @@
         <v>48</v>
       </c>
       <c r="E252" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5122,7 +5098,7 @@
         <v>50</v>
       </c>
       <c r="E253" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5136,10 +5112,10 @@
         <v>47</v>
       </c>
       <c r="D254" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E254" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5156,7 +5132,7 @@
         <v>48</v>
       </c>
       <c r="E255" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5173,7 +5149,7 @@
         <v>49</v>
       </c>
       <c r="E256" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5190,7 +5166,7 @@
         <v>50</v>
       </c>
       <c r="E257" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5207,7 +5183,7 @@
         <v>50</v>
       </c>
       <c r="E258" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5224,7 +5200,7 @@
         <v>50</v>
       </c>
       <c r="E259" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5241,7 +5217,7 @@
         <v>50</v>
       </c>
       <c r="E260" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5255,10 +5231,10 @@
         <v>31</v>
       </c>
       <c r="D261" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E261" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5275,7 +5251,7 @@
         <v>50</v>
       </c>
       <c r="E262" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5292,7 +5268,7 @@
         <v>50</v>
       </c>
       <c r="E263" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5309,7 +5285,7 @@
         <v>50</v>
       </c>
       <c r="E264" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5326,7 +5302,7 @@
         <v>50</v>
       </c>
       <c r="E265" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5340,10 +5316,10 @@
         <v>36</v>
       </c>
       <c r="D266" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E266" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5360,7 +5336,7 @@
         <v>50</v>
       </c>
       <c r="E267" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5377,7 +5353,7 @@
         <v>50</v>
       </c>
       <c r="E268" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5394,7 +5370,7 @@
         <v>48</v>
       </c>
       <c r="E269" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5408,10 +5384,10 @@
         <v>40</v>
       </c>
       <c r="D270" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E270" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5425,10 +5401,10 @@
         <v>41</v>
       </c>
       <c r="D271" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E271" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5445,7 +5421,7 @@
         <v>49</v>
       </c>
       <c r="E272" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5459,10 +5435,10 @@
         <v>43</v>
       </c>
       <c r="D273" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E273" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5476,10 +5452,10 @@
         <v>44</v>
       </c>
       <c r="D274" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E274" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5496,7 +5472,7 @@
         <v>48</v>
       </c>
       <c r="E275" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5513,7 +5489,7 @@
         <v>50</v>
       </c>
       <c r="E276" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5530,7 +5506,7 @@
         <v>50</v>
       </c>
       <c r="E277" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5547,7 +5523,7 @@
         <v>48</v>
       </c>
       <c r="E278" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5564,7 +5540,7 @@
         <v>49</v>
       </c>
       <c r="E279" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5581,7 +5557,7 @@
         <v>50</v>
       </c>
       <c r="E280" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5598,7 +5574,7 @@
         <v>50</v>
       </c>
       <c r="E281" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5612,10 +5588,10 @@
         <v>29</v>
       </c>
       <c r="D282" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E282" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5632,7 +5608,7 @@
         <v>50</v>
       </c>
       <c r="E283" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5649,7 +5625,7 @@
         <v>51</v>
       </c>
       <c r="E284" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5666,7 +5642,7 @@
         <v>50</v>
       </c>
       <c r="E285" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5680,10 +5656,10 @@
         <v>33</v>
       </c>
       <c r="D286" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E286" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5697,10 +5673,10 @@
         <v>34</v>
       </c>
       <c r="D287" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E287" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5717,7 +5693,7 @@
         <v>50</v>
       </c>
       <c r="E288" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5731,10 +5707,10 @@
         <v>36</v>
       </c>
       <c r="D289" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E289" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5751,7 +5727,7 @@
         <v>50</v>
       </c>
       <c r="E290" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5768,7 +5744,7 @@
         <v>50</v>
       </c>
       <c r="E291" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5785,7 +5761,7 @@
         <v>48</v>
       </c>
       <c r="E292" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5799,10 +5775,10 @@
         <v>40</v>
       </c>
       <c r="D293" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E293" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5816,10 +5792,10 @@
         <v>41</v>
       </c>
       <c r="D294" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E294" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5836,7 +5812,7 @@
         <v>49</v>
       </c>
       <c r="E295" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5850,10 +5826,10 @@
         <v>43</v>
       </c>
       <c r="D296" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E296" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5867,10 +5843,10 @@
         <v>44</v>
       </c>
       <c r="D297" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E297" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5887,7 +5863,7 @@
         <v>48</v>
       </c>
       <c r="E298" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5904,7 +5880,7 @@
         <v>50</v>
       </c>
       <c r="E299" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5921,7 +5897,7 @@
         <v>50</v>
       </c>
       <c r="E300" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5938,7 +5914,7 @@
         <v>48</v>
       </c>
       <c r="E301" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5955,7 +5931,7 @@
         <v>49</v>
       </c>
       <c r="E302" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5972,7 +5948,7 @@
         <v>50</v>
       </c>
       <c r="E303" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5989,7 +5965,7 @@
         <v>51</v>
       </c>
       <c r="E304" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6006,7 +5982,7 @@
         <v>50</v>
       </c>
       <c r="E305" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6023,7 +5999,7 @@
         <v>50</v>
       </c>
       <c r="E306" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6040,7 +6016,7 @@
         <v>50</v>
       </c>
       <c r="E307" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6054,10 +6030,10 @@
         <v>32</v>
       </c>
       <c r="D308" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E308" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6071,10 +6047,10 @@
         <v>33</v>
       </c>
       <c r="D309" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E309" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6091,7 +6067,7 @@
         <v>50</v>
       </c>
       <c r="E310" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6108,7 +6084,7 @@
         <v>50</v>
       </c>
       <c r="E311" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6122,10 +6098,10 @@
         <v>36</v>
       </c>
       <c r="D312" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E312" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6139,10 +6115,10 @@
         <v>37</v>
       </c>
       <c r="D313" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E313" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6156,7 +6132,10 @@
         <v>38</v>
       </c>
       <c r="D314" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="E314" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6170,10 +6149,10 @@
         <v>39</v>
       </c>
       <c r="D315" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E315" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6187,10 +6166,10 @@
         <v>40</v>
       </c>
       <c r="D316" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E316" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6204,10 +6183,10 @@
         <v>41</v>
       </c>
       <c r="D317" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E317" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6224,7 +6203,7 @@
         <v>49</v>
       </c>
       <c r="E318" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6238,10 +6217,10 @@
         <v>43</v>
       </c>
       <c r="D319" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E319" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6255,10 +6234,10 @@
         <v>44</v>
       </c>
       <c r="D320" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E320" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -6272,10 +6251,10 @@
         <v>45</v>
       </c>
       <c r="D321" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E321" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -6292,7 +6271,7 @@
         <v>50</v>
       </c>
       <c r="E322" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -6306,10 +6285,10 @@
         <v>47</v>
       </c>
       <c r="D323" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E323" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -6326,7 +6305,7 @@
         <v>48</v>
       </c>
       <c r="E324" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -6343,7 +6322,7 @@
         <v>49</v>
       </c>
       <c r="E325" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -6360,7 +6339,7 @@
         <v>50</v>
       </c>
       <c r="E326" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6377,7 +6356,7 @@
         <v>50</v>
       </c>
       <c r="E327" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6394,7 +6373,7 @@
         <v>51</v>
       </c>
       <c r="E328" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6408,10 +6387,10 @@
         <v>30</v>
       </c>
       <c r="D329" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E329" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6425,7 +6404,10 @@
         <v>31</v>
       </c>
       <c r="D330" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="E330" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6439,10 +6421,10 @@
         <v>32</v>
       </c>
       <c r="D331" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E331" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6459,7 +6441,7 @@
         <v>50</v>
       </c>
       <c r="E332" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6473,10 +6455,10 @@
         <v>34</v>
       </c>
       <c r="D333" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E333" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6493,7 +6475,7 @@
         <v>50</v>
       </c>
       <c r="E334" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6507,10 +6489,10 @@
         <v>36</v>
       </c>
       <c r="D335" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E335" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6524,10 +6506,10 @@
         <v>37</v>
       </c>
       <c r="D336" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E336" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6541,10 +6523,7 @@
         <v>38</v>
       </c>
       <c r="D337" t="s">
-        <v>50</v>
-      </c>
-      <c r="E337" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6561,7 +6540,7 @@
         <v>48</v>
       </c>
       <c r="E338" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6578,7 +6557,7 @@
         <v>50</v>
       </c>
       <c r="E339" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6592,10 +6571,10 @@
         <v>41</v>
       </c>
       <c r="D340" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E340" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6612,7 +6591,7 @@
         <v>49</v>
       </c>
       <c r="E341" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6626,10 +6605,10 @@
         <v>43</v>
       </c>
       <c r="D342" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E342" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6643,10 +6622,10 @@
         <v>44</v>
       </c>
       <c r="D343" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E343" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6660,10 +6639,10 @@
         <v>45</v>
       </c>
       <c r="D344" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E344" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6680,7 +6659,7 @@
         <v>50</v>
       </c>
       <c r="E345" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6694,10 +6673,10 @@
         <v>47</v>
       </c>
       <c r="D346" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E346" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6714,7 +6693,7 @@
         <v>48</v>
       </c>
       <c r="E347" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6731,7 +6710,7 @@
         <v>49</v>
       </c>
       <c r="E348" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6748,7 +6727,7 @@
         <v>50</v>
       </c>
       <c r="E349" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6762,10 +6741,10 @@
         <v>28</v>
       </c>
       <c r="D350" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E350" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6779,10 +6758,10 @@
         <v>29</v>
       </c>
       <c r="D351" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E351" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6796,10 +6775,10 @@
         <v>30</v>
       </c>
       <c r="D352" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E352" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6813,10 +6792,10 @@
         <v>31</v>
       </c>
       <c r="D353" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E353" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6830,10 +6809,10 @@
         <v>32</v>
       </c>
       <c r="D354" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E354" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6847,10 +6826,10 @@
         <v>33</v>
       </c>
       <c r="D355" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E355" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6867,7 +6846,7 @@
         <v>50</v>
       </c>
       <c r="E356" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6881,10 +6860,10 @@
         <v>35</v>
       </c>
       <c r="D357" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E357" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6898,10 +6877,10 @@
         <v>36</v>
       </c>
       <c r="D358" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E358" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6915,10 +6894,10 @@
         <v>37</v>
       </c>
       <c r="D359" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E359" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6935,7 +6914,7 @@
         <v>50</v>
       </c>
       <c r="E360" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6952,7 +6931,7 @@
         <v>48</v>
       </c>
       <c r="E361" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6969,7 +6948,7 @@
         <v>50</v>
       </c>
       <c r="E362" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6983,10 +6962,10 @@
         <v>41</v>
       </c>
       <c r="D363" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E363" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7003,7 +6982,7 @@
         <v>49</v>
       </c>
       <c r="E364" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7017,10 +6996,10 @@
         <v>43</v>
       </c>
       <c r="D365" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E365" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7034,10 +7013,10 @@
         <v>44</v>
       </c>
       <c r="D366" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E366" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -7054,7 +7033,7 @@
         <v>48</v>
       </c>
       <c r="E367" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7071,7 +7050,7 @@
         <v>50</v>
       </c>
       <c r="E368" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7088,7 +7067,7 @@
         <v>51</v>
       </c>
       <c r="E369" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -7105,7 +7084,7 @@
         <v>48</v>
       </c>
       <c r="E370" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7122,7 +7101,7 @@
         <v>49</v>
       </c>
       <c r="E371" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7139,7 +7118,7 @@
         <v>50</v>
       </c>
       <c r="E372" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -7156,7 +7135,7 @@
         <v>50</v>
       </c>
       <c r="E373" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7170,10 +7149,10 @@
         <v>29</v>
       </c>
       <c r="D374" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E374" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -7187,10 +7166,10 @@
         <v>30</v>
       </c>
       <c r="D375" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E375" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -7204,10 +7183,10 @@
         <v>31</v>
       </c>
       <c r="D376" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E376" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -7221,10 +7200,10 @@
         <v>32</v>
       </c>
       <c r="D377" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E377" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -7238,10 +7217,10 @@
         <v>33</v>
       </c>
       <c r="D378" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="E378" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -7258,7 +7237,7 @@
         <v>50</v>
       </c>
       <c r="E379" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -7275,7 +7254,7 @@
         <v>50</v>
       </c>
       <c r="E380" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -7289,10 +7268,10 @@
         <v>36</v>
       </c>
       <c r="D381" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E381" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -7306,10 +7285,10 @@
         <v>37</v>
       </c>
       <c r="D382" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E382" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -7323,10 +7302,10 @@
         <v>38</v>
       </c>
       <c r="D383" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E383" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -7340,10 +7319,10 @@
         <v>39</v>
       </c>
       <c r="D384" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E384" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7360,7 +7339,7 @@
         <v>50</v>
       </c>
       <c r="E385" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7374,10 +7353,10 @@
         <v>41</v>
       </c>
       <c r="D386" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E386" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -7394,7 +7373,7 @@
         <v>49</v>
       </c>
       <c r="E387" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -7408,10 +7387,10 @@
         <v>43</v>
       </c>
       <c r="D388" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E388" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -7425,10 +7404,10 @@
         <v>44</v>
       </c>
       <c r="D389" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E389" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -7445,7 +7424,7 @@
         <v>48</v>
       </c>
       <c r="E390" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7462,7 +7441,7 @@
         <v>50</v>
       </c>
       <c r="E391" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7479,7 +7458,7 @@
         <v>50</v>
       </c>
       <c r="E392" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7496,7 +7475,7 @@
         <v>48</v>
       </c>
       <c r="E393" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7513,7 +7492,7 @@
         <v>49</v>
       </c>
       <c r="E394" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -7530,7 +7509,7 @@
         <v>50</v>
       </c>
       <c r="E395" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7547,7 +7526,7 @@
         <v>50</v>
       </c>
       <c r="E396" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -7561,10 +7540,10 @@
         <v>29</v>
       </c>
       <c r="D397" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E397" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7578,10 +7557,10 @@
         <v>30</v>
       </c>
       <c r="D398" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E398" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7598,7 +7577,7 @@
         <v>50</v>
       </c>
       <c r="E399" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7612,10 +7591,10 @@
         <v>32</v>
       </c>
       <c r="D400" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E400" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7629,10 +7608,10 @@
         <v>33</v>
       </c>
       <c r="D401" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E401" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7649,7 +7628,7 @@
         <v>50</v>
       </c>
       <c r="E402" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7663,10 +7642,10 @@
         <v>35</v>
       </c>
       <c r="D403" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E403" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7680,10 +7659,10 @@
         <v>36</v>
       </c>
       <c r="D404" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E404" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7697,10 +7676,10 @@
         <v>37</v>
       </c>
       <c r="D405" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E405" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7717,7 +7696,7 @@
         <v>50</v>
       </c>
       <c r="E406" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7734,7 +7713,7 @@
         <v>48</v>
       </c>
       <c r="E407" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7748,10 +7727,10 @@
         <v>40</v>
       </c>
       <c r="D408" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E408" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7765,10 +7744,10 @@
         <v>41</v>
       </c>
       <c r="D409" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E409" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -7785,7 +7764,7 @@
         <v>49</v>
       </c>
       <c r="E410" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7799,10 +7778,10 @@
         <v>43</v>
       </c>
       <c r="D411" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E411" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7816,10 +7795,10 @@
         <v>44</v>
       </c>
       <c r="D412" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E412" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7836,7 +7815,7 @@
         <v>48</v>
       </c>
       <c r="E413" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7853,7 +7832,7 @@
         <v>50</v>
       </c>
       <c r="E414" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7867,10 +7846,10 @@
         <v>47</v>
       </c>
       <c r="D415" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E415" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7887,7 +7866,7 @@
         <v>48</v>
       </c>
       <c r="E416" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7904,7 +7883,7 @@
         <v>49</v>
       </c>
       <c r="E417" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7921,7 +7900,7 @@
         <v>50</v>
       </c>
       <c r="E418" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7935,10 +7914,7 @@
         <v>28</v>
       </c>
       <c r="D419" t="s">
-        <v>51</v>
-      </c>
-      <c r="E419" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7952,10 +7928,10 @@
         <v>29</v>
       </c>
       <c r="D420" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E420" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7969,10 +7945,10 @@
         <v>30</v>
       </c>
       <c r="D421" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E421" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7989,7 +7965,7 @@
         <v>50</v>
       </c>
       <c r="E422" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -8003,10 +7979,10 @@
         <v>32</v>
       </c>
       <c r="D423" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E423" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -8023,7 +7999,7 @@
         <v>50</v>
       </c>
       <c r="E424" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -8037,10 +8013,10 @@
         <v>34</v>
       </c>
       <c r="D425" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E425" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -8057,7 +8033,7 @@
         <v>50</v>
       </c>
       <c r="E426" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -8071,10 +8047,10 @@
         <v>36</v>
       </c>
       <c r="D427" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E427" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -8091,7 +8067,7 @@
         <v>50</v>
       </c>
       <c r="E428" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -8108,7 +8084,7 @@
         <v>50</v>
       </c>
       <c r="E429" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -8125,7 +8101,7 @@
         <v>48</v>
       </c>
       <c r="E430" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -8139,10 +8115,10 @@
         <v>40</v>
       </c>
       <c r="D431" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E431" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -8156,10 +8132,10 @@
         <v>41</v>
       </c>
       <c r="D432" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E432" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -8176,7 +8152,7 @@
         <v>49</v>
       </c>
       <c r="E433" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -8190,10 +8166,10 @@
         <v>43</v>
       </c>
       <c r="D434" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E434" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -8207,10 +8183,10 @@
         <v>44</v>
       </c>
       <c r="D435" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E435" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -8227,7 +8203,7 @@
         <v>48</v>
       </c>
       <c r="E436" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -8244,7 +8220,7 @@
         <v>50</v>
       </c>
       <c r="E437" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -8258,10 +8234,10 @@
         <v>47</v>
       </c>
       <c r="D438" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E438" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -8278,7 +8254,7 @@
         <v>48</v>
       </c>
       <c r="E439" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -8292,10 +8268,10 @@
         <v>26</v>
       </c>
       <c r="D440" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E440" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -8312,7 +8288,7 @@
         <v>50</v>
       </c>
       <c r="E441" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -8326,10 +8302,10 @@
         <v>28</v>
       </c>
       <c r="D442" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E442" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -8343,10 +8319,10 @@
         <v>29</v>
       </c>
       <c r="D443" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E443" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -8360,10 +8336,10 @@
         <v>30</v>
       </c>
       <c r="D444" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E444" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -8380,7 +8356,7 @@
         <v>50</v>
       </c>
       <c r="E445" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -8394,10 +8370,7 @@
         <v>32</v>
       </c>
       <c r="D446" t="s">
-        <v>50</v>
-      </c>
-      <c r="E446" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -8411,10 +8384,10 @@
         <v>33</v>
       </c>
       <c r="D447" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E447" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -8431,7 +8404,7 @@
         <v>50</v>
       </c>
       <c r="E448" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -8448,7 +8421,7 @@
         <v>50</v>
       </c>
       <c r="E449" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -8462,10 +8435,10 @@
         <v>36</v>
       </c>
       <c r="D450" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E450" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -8479,10 +8452,10 @@
         <v>37</v>
       </c>
       <c r="D451" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E451" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -8496,10 +8469,7 @@
         <v>38</v>
       </c>
       <c r="D452" t="s">
-        <v>50</v>
-      </c>
-      <c r="E452" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8513,10 +8483,10 @@
         <v>39</v>
       </c>
       <c r="D453" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E453" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8530,10 +8500,10 @@
         <v>40</v>
       </c>
       <c r="D454" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E454" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -8547,10 +8517,10 @@
         <v>41</v>
       </c>
       <c r="D455" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E455" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -8567,7 +8537,7 @@
         <v>49</v>
       </c>
       <c r="E456" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -8581,10 +8551,10 @@
         <v>43</v>
       </c>
       <c r="D457" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E457" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8598,10 +8568,10 @@
         <v>44</v>
       </c>
       <c r="D458" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E458" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -8615,10 +8585,10 @@
         <v>45</v>
       </c>
       <c r="D459" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E459" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -8635,7 +8605,7 @@
         <v>50</v>
       </c>
       <c r="E460" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -8649,10 +8619,10 @@
         <v>47</v>
       </c>
       <c r="D461" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E461" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -8669,7 +8639,7 @@
         <v>48</v>
       </c>
       <c r="E462" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8683,10 +8653,10 @@
         <v>26</v>
       </c>
       <c r="D463" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E463" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8700,10 +8670,10 @@
         <v>27</v>
       </c>
       <c r="D464" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E464" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8720,7 +8690,7 @@
         <v>50</v>
       </c>
       <c r="E465" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -8737,7 +8707,7 @@
         <v>51</v>
       </c>
       <c r="E466" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -8751,10 +8721,10 @@
         <v>30</v>
       </c>
       <c r="D467" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E467" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8771,7 +8741,7 @@
         <v>50</v>
       </c>
       <c r="E468" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8785,10 +8755,10 @@
         <v>32</v>
       </c>
       <c r="D469" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E469" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8802,7 +8772,10 @@
         <v>33</v>
       </c>
       <c r="D470" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="E470" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8819,7 +8792,7 @@
         <v>50</v>
       </c>
       <c r="E471" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8836,7 +8809,7 @@
         <v>50</v>
       </c>
       <c r="E472" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -8850,10 +8823,10 @@
         <v>36</v>
       </c>
       <c r="D473" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E473" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8867,10 +8840,10 @@
         <v>37</v>
       </c>
       <c r="D474" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E474" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -8887,7 +8860,7 @@
         <v>50</v>
       </c>
       <c r="E475" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8904,7 +8877,7 @@
         <v>48</v>
       </c>
       <c r="E476" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8918,10 +8891,10 @@
         <v>40</v>
       </c>
       <c r="D477" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E477" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8935,10 +8908,10 @@
         <v>41</v>
       </c>
       <c r="D478" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E478" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8955,7 +8928,7 @@
         <v>49</v>
       </c>
       <c r="E479" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -8969,10 +8942,10 @@
         <v>43</v>
       </c>
       <c r="D480" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E480" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8986,10 +8959,10 @@
         <v>44</v>
       </c>
       <c r="D481" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E481" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -9006,7 +8979,7 @@
         <v>48</v>
       </c>
       <c r="E482" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -9023,7 +8996,7 @@
         <v>50</v>
       </c>
       <c r="E483" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -9040,7 +9013,7 @@
         <v>51</v>
       </c>
       <c r="E484" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
